--- a/database/test_dataset.xlsx
+++ b/database/test_dataset.xlsx
@@ -24,9 +24,6 @@
     <t>life</t>
   </si>
   <si>
-    <t>ঈদের একদিন টেলিভিশনে আলজাজিরা দেখছিলাম ইসরায়েলের একজন ফিলিস্তিনের একজন টক শোয় অংশ নিচ্ছিলেন জায়গা কেন্দ্রে একজন সঞ্চালক মধ্যস্থতা করছিলেনফিলিস্তিনি প্রশ্ন ১০ মানুষ শান্তিপূর্ণ সমাবেশ করছিলাম ইসরায়েলি সৈন্যরা করলইসরায়েলি ভদ্রলোক প্রশ্ন সন্ত্রাস সমর্থন শান্তিফিলিস্তিনি আলোচক হিংসার বিরুদ্ধে অহিংস আন্দোলনের শান্তিপূর্ণ সমাবেশে ইসরায়েলি সৈন্যরা পাল্টা প্রশ্ন ইসরায়েলি ভদ্রলোককেযিনি কিনা একজন সাবেক কূটনীতিকআপনি ফিলিস্তিনিদের স্বাধীনতাকে সমর্থন নাইসরায়েলি হ্যাঁ ফিলিস্তিনিদের ভাগ্য নিয়ন্ত্রণ অধিকার সমর্থন ফিলিস্তিনিদের মিছিল হয়েছিলআলজাজিরা টেলিভিশনের ফুটেজে বিচ্ছিন্নভাবে হাতে তৈরি অস্ত্র ছোড়া সৈন্যদের আলজাজিরা ফুটেজ কোথায় পেয়েছে জানি কাজেই সত্যতা কোনো মন্তব্য করব আলজাজিরা ফিলিস্তিনিদের সমর্থন ইসরায়েলি বর্বরতার বিরোধিতা কোনো গোপন বিষয় ইসরায়েলি সৈন্যরা আলজাজিরার অফিসের ভেতরেও গোলা ছুড়েছে ইসরায়েলে আলজাজিরা নিষিদ্ধ হয়েছে খবর আলজাজিরা টেলিভিশনেই দেখলাম হচ্ছেযাই হোক এরপর বিবিসি সিএনএন দেখি বেশিক্ষণ দেখেছি মনটা বিষণ্ন হয়ে নিউইয়র্ক টাইমসএর বিরুদ্ধে অভিযোগ ইসরায়েল পক্ষপাতিত্বের হিসাবেই ১৩২৮ ফিলিস্তিনি ৫৯ ইসরায়েলি নিহত হয়েছেন ৮ জুলাইয়ের গাজায় ইসরায়েলি হামলায় ৮ ৩০ জুলাই ২৩ দিনে ১৪০০ মানুষের মৃত্যু নারী শিশুরা ইসরায়েলি সৈন্যরা হামলা হাসপাতালে স্কুলে জাতিসংঘের আশ্রয়কেন্দ্রে বাড়িঘর ধুলায় মিশিয়ে আশ্চর্য কোথাও কোনো বিকার শিশুহত্যা নারীহত্যা বিশ্ববিবেককে বিন্দুমাত্র বিচলিত পারছে তো নাআমেরিকার একটা গবেষণা প্রতিষ্ঠান ইস্ট ওয়েস্ট সেন্টার আমন্ত্রণে যুক্তরাষ্ট্র গিয়েছিলাম পনেরোর আলোচনা হচ্ছিল সন্ত্রাস কয়েকজন মোটামুটিভাবে একটা সংজ্ঞা দাঁড় করাতে পেরেছিলাম কোনো একটা উদ্দেশ্য হাসিলের কোনো দাবিদাওয়া আদায় জানান দেওয়ার সংশ্লিষ্ট মানুষ মারা মারা পরোয়া হামলা করাএটাই হলো সন্ত্রাস ১১ সেপ্টেম্বরের টুইন টাওয়ারে হামলায় মারা গিয়েছে নিরস্ত্র বেসামরিক মানুষ সন্ত্রাসী হামলা কোনো একটা রেলস্টেশনে বোমা ফাটানো সন্ত্রাসী কাজআজকে সংজ্ঞাটা ঘুরেফিরে বাজছে ফিলিস্তিনি শিশুটা মায়ের কোলে ঘুমুচ্ছে শিশুরা রাস্তায় সৈকতে দৌড়ঝাঁপ সন্ত্রাস সন্ত্রাসী রাজনীতি সীমান্ত দল মূল্যবোধের সম্পর্ক কোথায় একজনকে নিরস্ত ১৩২৮ মানুষ মেরে ফেলা হলো স্কুলহাসপাতালজাতিসংঘ আশ্রয়কেন্দ্রটেলিভিশন কেন্দ্রে বোমাগোলা ছোড়া সন্ত্রাস নয়তাহলে সন্ত্রাসের বিরুদ্ধে লড়াই সন্ত্রাসমুক্ত পৃথিবী গড়বেন ছারখার ইরাক আফগানিস্তান গণতন্ত্র প্রতিষ্ঠার কথা তছনছ মধ্যপ্রাচ্যের একটার একটা দেশ পাহারা দিয়ে রাখছেন মধ্যপ্রাচ্যেরই আমিরওমরাহতন্ত্র কোথায়আমেরিকার পররাষ্ট্রমন্ত্রী কেরি টেলিভিশনের প্রকাশ্য সাক্ষাৎকারে ইসরায়েলিদের রক্ষা যেকোনো অধিকারকে সমর্থন একটা ফোন ধরেছিলেন অফ দ্য রেকর্ড জানতেন ক্যামেরা খোলা গাজায় পরিচালিত ইসরায়েলি ধ্বংসযজ্ঞকে ফেলেন ইটস আ হেল অব পিনপয়েন্ট অপারেশন এও এখনই এলাকায় উচিতজাতিসংঘের মহাসচিব বান মুন ঘুমন্ত শিশুদের ওপর হামলার চেয়ে লজ্জাজনক প্রেসিডেন্ট ওবামাও গাজায় ক্রমবর্ধমান নারীশিশুসাধারণ মানুষের মৃত্যুতে খুবই উদ্বিগ্ন সত্ত্বেও ইসরায়েলের বিরুদ্ধে একটা কড়া বিবৃতিও রূপকথার গল্পের বাঁদরের কলজে গাছের মগডালে বাঁধা তেমনি কোনো একটা স্বার্থ ইসরায়েলিদের আষ্টেপৃষ্ঠে বাঁধা আলজাজিরা টেলিভিশনেই দেখলাম ইসরায়েলি সংহতির সভা যুক্তরাষ্ট্রে কর্তারা সংহতি জানাচ্ছেন ওবামা ইসরায়েলের বিরুদ্ধে প্রমাণিত ওবামা ক্ষমতায় থাকতে পারবেন নাআমাদের প্রতিবাদ ফেসবুকে হ্যাশট্যাগ দিয়ে গাজা সমর্থন ফিলিস্তিনি দুধের শিশুর রক্তাক্ত হওয়া ঠেকাতে বুঝি বিশ্বশান্তির জন্যই দরকার ফিলিস্তিনিদের একটা স্বাধীন আবাসভূমি যেকোনো স্বাধীনতার আন্দোলনই এক পক্ষের মুক্তির আন্দোলন আরেক পক্ষের চোখে সন্ত্রাসী কর্মকাণ্ড দশকের দশক ফিলিস্তিনিরা মুক্তির লড়ছে ইসরায়েল নাগরিকদের শান্তি নিরাপত্তারজন্য জিরো টলারেন্স প্রদর্শন চলেছে একটার একটা যুদ্ধ হয়েছে ইসরায়েল এলাকা বাড়িয়ে নিয়েছেইসরায়েল ইরানে বিমান পাঠিয়ে সম্ভাব্য পারমাণবিক বোমার কারখানা বোমা মেরে উড়িয়ে দিয়েছেছোট ছোট কবরে ছোট ছোট শরীরগুলোকে শোয়ানো শিশুদের কোনো দোষ কৃতকর্মের ভুগছে পৃথিবীতে অবিচার রবীন্দ্রনাথের মতো ক্ষমা করিয়াছ বেসেছ ভালোআনিসুল হক সাহিত্যিক সাংবাদিক</t>
-  </si>
-  <si>
     <t>column</t>
   </si>
   <si>
@@ -57,9 +54,6 @@
     <t>রাজশাহী বিভাগে বিএনপির ডাকা হরতাল চলাকালে রোববার বগুড়ার মাটিডালি এলাকায় ঢাকারংপুর মহাসড়কে পিকেটিং সময় ১০ আটক পুলিশ ভ্রাম্যমাণ আদালত মধ্য পাঁচজনকে কারাদণ্ড দিয়েছেনদণ্ডিত ব্যক্তিরা হলেন মামুনুর রশীদ আজমল হোসেন মশিউর রহমান আশরাফুল ইসলাম সাব্বির হোসেন প্রত্যেককে ১৫ কারাদণ্ড ভ্রাম্যমাণ আদালতের বিচারক নির্বাহী ম্যাজিস্ট্রেট মাসুদুর রহমানবগুড়ার সহকারী পুলিশ সুপার এএসপি গাজিউর রহমান জানান সকাল সাড়ে দশটার মাটিডালি এলাকায় ইটপাটকেল হাতে হরতালঅবরোধের সমর্থনে পিকেটিং সময় ১০ আটক পাঁচজনকে নাশকতা ভাঙচুরের মামলায় গ্রেপ্তার দেখিয়ে কারাগারে পাঠানো পাঁচজনকে ভ্রাম্যমাণ আদালতে হাজির বিচারক প্রত্যেককে ১৫ দিনের কারাদণ্ড তাঁদেরও কারাগারে পাঠানো এদিকে নেতাকর্মীদের গণগ্রেপ্তারের প্রতিবাদে ১২ ঘণ্টা হরতাল ডেকেছে জেলা বিএনপি জেলা বিএনপির সভাপতি সাইফুল ইসলাম আলোকে নিশ্চিত ঘোষিত সময় রাজশাহী বিভাগে সোমবার সন্ধ্যা ছয়টায় হরতাল শেষ বগুড়ায় মঙ্গলবার সকাল ছয়টা চলবে গতকাল শনিবার রাতে মহাসড়কে তিনটি পণ্যবাহী ট্রাকে আগুন দুর্বৃত্তরা</t>
   </si>
   <si>
-    <t>মালয়েশিয়া এয়ারলাইনসের বিধ্বস্ত হওয়া উড়োজাহাজের আরোহীদের লাশ গুরুত্বপূর্ণ মালামাল উদ্ধার প্রক্রিয়া যথাযথভাবে শেষ রাশিয়ার প্রেসিডেন্ট ভ্লাদিমির পুতিনের শেষ সুযোগ সুযোগে ইউক্রেনে সৃষ্ট অস্থিরতার অবসান ঘটানোর পদক্ষেপের কথা পুতিনকে স্মরণ করিয়ে ইউরোপীয় নেতারানেদারল্যান্ডসের আমস্টারডাম মালয়েশিয়ার কুয়ালালামপুরগামী ফ্লাইট এমএইচ১৭ গত বৃহস্পতিবার ইউক্রেনের পূর্বাঞ্চলে বিধ্বস্ত ইউক্রেনের পশ্চিমাসমর্থিত সরকারের অভিযোগ অঞ্চলের রুশপন্থী বিদ্রোহীরা রাশিয়ার তৈরি বুক ক্ষেপণাস্ত্র ছুড়ে উড়োজাহাজটি বিধ্বস্ত বিদ্রোহীরা অভিযোগ অস্বীকার অভিযোগের তির রাশিয়ার সেনাবাহিনীর দিকেওখবরে উড়োজাহাজের ধ্বংসস্তূপ লাশ শনাক্তকরণের বাধা দিচ্ছে সশস্ত্র বিচ্ছিন্নতাবাদীরা নিহত ব্যক্তিদের জিনিসপত্র লুটপাট রাশিয়াপন্থী বিদ্রোহীদের দায়ী হয়েছে এসব অভিযোগ খণ্ডনে রাশিয়ার উপযুক্ত সময় ইউরোপীয় নেতারাগত শনিবার রাতে পুতিনকে টেলিফোন প্রতিক্রিয়া জানান ডাচ প্রধানমন্ত্রী মার্ক রুট উড়োজাহাজ বিধ্বস্তের ঘটনায় ক্ষতিগ্রস্তদের সহযোগিতা দেওয়ার শেষ সুযোগ পুতিনকে প্রমাণ উড়োজাহাজের আরোহীদের মৃতদেহ উদ্ধারের আন্তরিকইউক্রেনে সংঘাত বন্ধে প্রভাব লাগাতে পুতিনের আহ্বান জানিয়েছেন জার্মান চ্যান্সেলর আঙ্গেলা ম্যার্কেল যুক্তরাজ্যের প্রধানমন্ত্রী ডেভিড ক্যামেরন ইউক্রেনের মতো সার্বভৌম দেশকে অস্থিতিশীল তোলার ফল পাচ্ছে রাশিয়া মার্কিন পররাষ্ট্রমন্ত্রী কেরি রাশিয়ার পররাষ্ট্রমন্ত্রী সের্গেই লাভরভকে ফোন উদ্বেগের কথা জানিয়েছেন দুর্ঘটনাস্থলে ঢুকতে তদন্তকারীদের পূর্ণ স্বাধীনতা নিশ্চিত</t>
-  </si>
-  <si>
     <t>স্ট্যামফোর্ড ব্রিজ অ্যানফিল্ড মাঠে প্রিমিয়ার লিগের শিরোপাপ্রত্যাশী চেলসি লিভারপুল ভুলে যাওয়ার একটা রাত কাটাল কাল বর্তমান চ্যাম্পিয়ন চেলসি ২১ গোলে হেরেছে ক্রিস্টাল প্যালেসের ব্রেন্ডন রজার্সের লিভারপুলের অবস্থা বাজে ওয়েস্ট হামের হারটা ৩০ গোলে মৌসুমে ম্যাচে জিতলেও তৃতীয় ম্যাচে আর্সেনালের গোলশূন্য ড্র করেছিল লিভারপুল অন্যদিকে সোয়ানসির ড্র দিয়ে মৌসুম চেলসির চতুর্থ ম্যাচে দ্বিতীয় হার কাল আর্সেনাল ১০ গোলে জিতেছে নিউক্যাসলের বিপক্ষে স্টার স্পোর্টস</t>
   </si>
   <si>
@@ -81,9 +75,6 @@
     <t>অফিসে জায়গায় দিনের আলো তো বসার জায়গাটা জানালার পাশে রাতে ভালো ঘুমের সহায়ক কৃত্রিম আলোয় নিয়মিত অনিদ্রায় ভুগতে জার্নাল অব ক্লিনিক্যাল মেডিসিন সাময়িকীতে প্রকাশিত এক গবেষণা প্রতিবেদনে তথ্য জানানো হয়েছেযুক্তরাষ্ট্রের শিকাগো শহরে অবস্থিত নর্থওয়েস্টার্ন ইউনিভার্সিটির স্নায়ুবিজ্ঞান বিভাগের শিক্ষক আইভি চেউং গবেষণায় নেতৃত্ব মতে অফিসের পরিবেশ সুন্দর কর্মীর সার্বিক স্বাস্থ্য রাতের ঘুমে ইতিবাচক প্রভাব ফেলে জানালাবিহীন বদ্ধ ঘরে রাতে অনিদ্রার প্রবণতা তুলনামূলক দিনের আলোর উপস্থিতিতে জানালার পাশে ধরনের সমস্যায় সাধারণত কম ভোগেন গবেষণায় যায় জানালাবিহীন কৃত্রিম আলোয় অফিসের একজন মানুষের স্বাভাবিক ঘুম গড়ে ৪৬ মিনিট নষ্ট হয়ে যায় কাজেই অফিসের অভ্যন্তরীণ পরিবেশ পরিবর্তন স্বাস্থ্যসম্মতভাবে সাজানোর পরামর্শ হয়আইভি চেউং কর্মীদের স্বাস্থ্যের কথা মাথায় পর্যাপ্ত সূর্যালোক প্রবেশের সুযোগ অফিসের স্থাপত্য নকশা তৈরি মানুষের শরীরের স্বাভাবিক ছন্দ বজায় রাখতে দিবালোক গুরুত্বপূর্ণ ভূমিকা পালন দিনের আলোর সংস্পর্শে সময় কাটানোর মানুষ অধিকতর স্বাস্থ্যকর জীবনযাত্রা নিশ্চিত স্বাভাবিক ঘুমের বিষয়টি প্রাকৃতিক দেহঘড়ির নিয়ন্ত্রিত রাতে ঘুম ভালো দৈনন্দিন কাজকর্মে বাড়তি গতি স্বাচ্ছন্দ্য আসে টেলিগ্রাফ</t>
   </si>
   <si>
-    <t>হিথরো বিমানবন্দরে যুক্তরাজ্য স্বেচ্ছাসেবক লীগের পক্ষের গতকাল শুক্রবার রাতে হাতাহাতি যুক্তরাজ্যে স্বেচ্ছাসেবক লীগের তিন কেন্দ্রীয় নেতাকে অভ্যর্থনা জানাতে একপর্যায়ে হাতাহাতি টানাটানি ধাক্কাধাক্কি পুলিশ পরিস্থিতি নিয়ন্ত্রণে আনে আগামীকাল রোববার পূর্ব লন্ডনের অ্যাট্রিয়াম যুক্তরাজ্য স্বেচ্ছাসেবক লীগের সভা কথা সভায় আমন্ত্রিত কেন্দ্রীয় স্বেচ্ছাসেবক লীগের সভাপতি মোল্লা আবু কাউসার সাংগঠনিক সম্পাদক আব্দুল আলীম দপ্তর সম্পাদক সালেহ মোহাম্মদ টুটুল লন্ডনে অভ্যর্থনা জানাতে যুক্তরাজ্য স্বেচ্ছাসেবক লীগের পক্ষের নেতাকর্মীরা তিন নম্বর টার্মিনালে আলাদা সারিতে দাঁড়ান গতকাল শুক্রবার রাত সাড়ে আটটার নেতারা টার্মিনালে আসেন সময় তাঁদেরকে ফুল পক্ষের ধাক্কাধাক্কি লিফটে ওঠার সময় একপক্ষ আরেক পক্ষের নেতাকর্মীদের কিল ঘুষি মেরে সরিয়ে গাড়ি রাখার স্থানে নেতাদের গাড়িতে তোলা হাতাহাতি প্রৃচণ্ড হট্টগোলের পুলিশ পরিস্থিতি নিয়ন্ত্রণে আনে স্থানীয় সময় সাড়ে ১২টার স্বেচ্ছাসেবক লীগের সাংগঠনিক সম্পাদক আব্দুল আলীম আলোকে যুক্তরাজ্য স্বেচ্ছাসেবক লীগের কোন্দল সম্পর্কে ধারণা সভাপতি সায়েদ আহমদ সম্পাদক সানু মিয়ার নেতৃত্বে কমিটি যুক্তরাজ্য স্বেচ্ছাসেবক লীগের একমাত্র কমিটি সারওয়ার আহমদ ইকবাল হোসেনের নেতৃত্বে গ্রুপটি অভ্যর্থনা জানাতে চেনেন দাবি আব্দুল আলীমের দাবি জামায়াতশিবিরের লোকেরা বিমানবন্দরে বিশৃঙ্খলা সৃষ্টির চালিয়েছে যাঁদের চেনেন জামায়াতশিবিরের লোক কীভাবে নিশ্চিত হলেনএমন প্রশ্নের জবাবে আব্দুল আলীম সংগঠনের স্বেচ্ছাসেবক লীগের পক্ষের নেতারা হাতাহাতির কথা অস্বীকার মানুষ কারণে কিছুটা ধাক্কাধাক্কি যুক্তরাজ্য আওয়ামী লীগের একাধিক নেতা স্বেচ্ছাসেবক লীগের বিরোধ সম্পর্কে রাজি হননি</t>
-  </si>
-  <si>
     <t>এক পাশে সাফল্যের স্মারক সাজানো আরেক পাশে ভক্ত সবাই শেষ নিচ্ছেন কিংবদন্তিকে কাল মাদ্রিদের সান্তিয়াগো বার্নাব্যু স্টেডিয়ামে আলফ্রেডো ডি স্টেফানোকে শেষ বিদায় জানাতে ঢল নেমেছিল হাজারো জনতার স্প্যানিশরা দল বেঁধেই এসেছে সর্বকালের অন্যতম সেরা ফুটবলারকে শ্রদ্ধা জানাতে স্প্যানিশরা তো আসবেই স্বৈরাচারী শাসক ফ্রাঙ্কোর শাসনামলে বিশ্বে স্পেনের ভাবমূর্তি যেটুকু উজ্জ্বল সবটাই রিয়াল মাদ্রিদ ডি স্টেফানোর সৌজন্যেপরশু ৮৮ বছর বয়সে পৃথিবীর মায়া কাটানো স্টেফানোর জন্ম বেড়ে ওঠা আর্জেন্টিনায় শেষ স্পেনই আপন নিয়েছিল গত শতাব্দীর পঞ্চাশ ষাটের দশকে রিয়াল মাদ্রিদের সর্বজয়ী দলের মুখ হয়ে কখনো বিশ্বকাপ খেলা তারকা ক্রীড়াঙ্গনের মানুষেরা তো বটেই স্পেনের রাজপরিবার দেশটির গণমাধ্যম সবাই শ্রদ্ধা জানিয়েছে মহাতারকাকেকাল মাদ্রিদের ক্রীড়া দৈনিক মার্কার পাতায় ডি স্টেফানোর ছোট সাদাকালো আলোকচিত্র ছাড়া ডি স্টেফানোর সম্মানে রিয়াল মাদ্রিদের ৯ নম্বর জার্সিটাও চিরতরে রাখার আহ্বান জানিয়েছে দৈনিকটি প্রতিদ্বন্দ্বী দৈনিক এএস বড় দেখিয়েছে জেনারেল ফ্রাঙ্কোর আমলে ডি স্টেফানোর অর্জনকে ১৯৫০এর শেষ দিকের দরিদ্র একঘরে বহির্বিশ্ব বিযুক্ত স্পেনের গর্বের বিষয় সামান্য জিনিসরিয়াল মাদ্রিদ ইউরোপিয়ান কাপএগুলো ইউরোপ একমাত্র তখনই মাথা নত রিয়াল মাদ্রিদ ডি স্টেফানো এএফপিফুটবলে ডি স্টেফানোর অবদান স্মরণ ফুটবলসম্রাট পেলেও ইউরোপিয়ান ক্লাব ফুটবলে লাতিন ফুটবলারদের রমরমা অবস্থা পেলে পুরো কৃতিত্বই ডি স্টেফানোকে লাতিন আমেরিকান ফুটবলার ইউরোপিয়ান ক্লাবের মেলবন্ধন পুরোপুরিই ডি স্টেফানোর কাজের ফসল</t>
   </si>
   <si>
@@ -93,9 +84,6 @@
     <t>১৪ জুন মিনহাজ ইসলাম ১৫ জুন নাদিম হোসাইন খিলক্ষেত ঢাকা ১৬ জুন রাশেকুর রহমান নাবিল ৬৮ নারিন্দা রোড ঢাকা ১৭ জুন ওয়াহিদ আফসার রাফি ১৮ জুন মেহেদী হাসান পাভেল ১৯ জুন জাহাঙ্গীর আলম ২০ জুন শরীফ আহমেদ বাড়ি৭৭৭৮ সড়ক৬ ব্লকবি মনসুরাবাদ আবাসিক এলাকা আদাবর ঢাকা ২১ জুন শাহেদ হোসাইন মুসা ২২ জুন মোহাম্মদ হাশেম ২৩ জুন তাপস রুদ্র ২৪ জুন গাজী নওশাদ ২৫ জুন মাহফুজুর রহমান ২৬ জুন অবনী হোসেন ২৭ জুন মেহেদী হাসান লিমন এ১ ১৮৪ নিউ পল্টন লেন আজিমপুর ঢাকা ২৮ জুন রাহাত মির্জা বাড়ি৭২ সড়ক৬ ব্লকবি মনসুরাবাদ আবাসিক এলাকা আদাবর ঢাকা ২৯ জুন মো আল মাসুম নয়ন ৩০ জুন খায়রুল আলম ১ জুলাই অসমাপ্ত কিং ২ জুলাই দুলাল মিয়া ৩ জুলাই গাজী সোহেল গাজী ফার্মেসি সড়ক২ মনসুরাবাদ আবাসিক এলাকা আদাবর ঢাকা ৪ জুলাই সুমনা বিনতে আমিন বাড়ি১০ ওয়ার্ড১ হাজারীবাগ ঢাকা ৫ জুলাই রামীম রানা ৬ জুলাই সাজেদুল হক ৯০৫১এ শেওড়াপাড়া কাফরুল ঢাকা ৭ জুলাই একটা কতিপয় ফাজিল ছেলে ৮ জুলাই রাফি ৯ জুলাই আশিষ মজুমদার ১০ জুলাই শুভ দীপ রায় ১১ জুলাই ফারুক ইকবাল</t>
   </si>
   <si>
-    <t>চারবার মেরিলপ্রথম আলো পুরস্কার অনুষ্ঠানটি উপস্থাপনা হানিফ সংকেত ১৯৯৯ ২০০১ ২০০৩ ২০০৫ উপস্থাপক হিসেবে সর্বাধিকবার মঞ্চে ফেরা ১৯৯৯ সালে মেরিলপ্রথম আলো পুরস্কারের আয়োজনের উপস্থাপক সুবর্ণা মুস্তাফা আফজাল হোসেন জুটি বেঁধে সবচেয়ে বেশিবার অনুষ্ঠান উপস্থাপনা চঞ্চল চৌধুরীমোশাররফ করিম ২০১০ ২০১১ ২০১৩ সালে তিনবার জুটি ফিরেছেন মেরিলপ্রথম আলো পুরস্কারের মঞ্চে ২০১১ সালে অভিনেত্রী তিশাও সর্বশেষ আয়োজনের উপস্থাপক জাদুশিল্পী জুয়েল আইচ ২০১৪ রাজি করাতে আয়োজকদের কাঠখড় পোড়াতে হয়েছিল প্রয়াত মডেল তিন্নি ২০০১ সালের আয়োজনে উপস্থাপনা সহকারীর ভূমিকা পালন পরিবর্তনের বছর ২০০৭ ২০০৮ ২০০৭ সালে শেষবারের মতো সেরা মডেল নারী পুরুষ বিভাগে পুরস্কার সেরা মডেল পুরুষ হিসেবে শেষ সবচেয়ে এগিয়ে নোবেল ১৯৯৮ ২০০১ ২০০৩ ২০০৪ সালে জেতেন পুরস্কার অন্যদিকে সেরা মডেল নারী হিসেবে এগিয়ে মৌয়ের নাম ১৯৯৮ ২০০১ সাল টানা চারবার জিতেছেন সেরার পুরস্কার ২০০৮ সালেও মেরিলপ্রথম আলো পুরস্কারে লেগেছিল পরিবর্তনের হাওয়া বছর শেষবারের মতো সেরা ব্যান্ড বিভাগে পুরস্কার সেরা পরিচালক হিসেবে হুমায়ুন আহমেদের জনপ্রিয়তা পরও পুরস্কার পান ২০১২ সালে সর্বশেষ চলচ্চিত্র ঘেটুপুত্র কমলার তিন বছর বাদ গেলেও ২০০২ সাল আজীবন সম্মাননার ধারা সম্মাননা পেয়েছেন সোহরাব হোসেন ২০০২ সুভাষ দত্ত ২০০৩ আব্দুল লতিফ ২০০৪ শাহ্ আব্দুল করিম ২০০৫ ফেরদৌসী মজুমদার ২০০৬ কলিম শরাফী ২০০৭ ফেরদৌসী রহমান ২০০৮ বেবী ইসলাম ২০০৯ সুধীন দাশ ২০১০ ফিরোজা বেগম ২০১১ মুস্তাফা মনোয়ার ২০১২ রামকানাই দাশ ২০১৩ রাজ্জাক ২০১৪ ২০০৫ সাল সেরা টিভি অনুষ্ঠান বিনোদন বিভাগে পুরস্কার শেষ বিভাগে বিজয়ী একটা অনুষ্ঠানই নাম ১৯৯৮ সাল টানা আটবার পায় সেরা টিভি অনুষ্ঠানের পুরস্কার</t>
-  </si>
-  <si>
     <t>entertainment</t>
   </si>
   <si>
@@ -132,9 +120,6 @@
     <t>এম এহিয়া খানবাংলাদেশ বেতারের সাবেক মহাপরিচালক এম এহিয়া খান ৮৯ গত বৃহস্পতিবার রাতে ইন্তেকাল ইন্না লিল্লাহি ওয়া ইন্না ইলাইহি রাজিউন স্ত্রী তিন ছেলে এক মেয়ে নাতিনাতনি গেছেন গত শুক্রবার বাদ জুমা গোপীবাগ জামে মসজিদে জানাজা শেষে মিরপুর কবরস্থানে মরদেহ দাফন হয়েছে বিজ্ঞপ্তি মো কাজিমদ্দিনপঞ্চগড়ের অবসরপ্রাপ্ত প্রধান শিক্ষক মো কাজিমউদ্দিন ৬৫ গতকাল শনিবার বেলা ১১টায় স্থানীয় হাসপাতালে ইন্তেকাল ইন্না লিল্লাহি ওয়া ইন্না ইলাইহি রাজিউন তিন ছেলে গেছেন বাদ আসর জানাজা শেষে সদর উপজেলার ঘাটিয়ারপাড়া গ্রামে পারিবারিক কবরস্থানে মরদেহ দাফন মো কাজিমউদ্দিন পঞ্চগড় আলো বন্ধুসভার প্রতিষ্ঠাতা সভাপতি আতাউর রহমানের বাবা পঞ্চগড় প্রতিনিধি আবদুল মালেক মিয়ারাজবাড়ী জেলা মোটর শ্রমিক ইউনিয়নের সম্পাদক গোয়ালন্দ উপজেলা শ্রমিক লীগের সভাপতি আবদুল মালেক মিয়া ৫৭ গতকাল শনিবার রাজধানীর হাসপাতালে ইন্তেকাল ইন্না লিল্লাহি ওয়া ইন্না ইলাইহি রাজিউন স্ত্রী এক ছেলে মেয়ে গেছেন গতকাল সকালে ঢাকার আলমারকাজুল ইসলামে জানাজা অনুষ্ঠিত গতকাল রাত সোয়া ১০টায় গোয়ালন্দ বাজার শহিদ মহিউদ্দিন আনছারক্লাব প্রাঙ্গণে দ্বিতীয় জানাজা শেষে মরদেহ পৌর কবরস্থানে দাফন কথাগোয়ালন্দ রাজবাড়ী প্রতিনিধি মো আবদুল মতিনবাংলাদেশ প্রকৌশল বিশ্ববিদ্যালয়ের তড়িৎ ইলেকট্রনিক কৌশল বিভাগের অধ্যাপক মো আবদুল মতিন ৬৪ গত বৃহস্পতিবার সন্ধ্যা সাড়ে সাতটার বিশ্ববিদ্যালয়ের শিক্ষক আবাসিক এলাকায় ইন্তেকাল ইন্না লিল্লাহি ওয়া ইন্না ইলাইহি রাজিউন স্ত্রী এক ছেলে এক মেয়ে গেছেন গত শুক্রবার বাদ ফজর বুয়েট কেন্দ্রীয় মসজিদে জানাজা অনুষ্ঠিত কুমিল্লা সদর উপজেলার বানীপুর গ্রামে দ্বিতীয় জানাজা শেষে পারিবারিক কবরস্থানে মরদেহ দাফন বিজ্ঞপ্তি ইউসুফ আলী হাওলাদারমুক্তিযোদ্ধা মো ইউসুফ আলী হাওলাদার গত শুক্রবার রাতে পশ্চিম ঝালকাঠির নিজ বাসভবনে ১০৫ ইন্তেকাল ইন্না লিল্লাহি ওয়া ইন্না ইলাইহি রাজিউন স্ত্রী ছয় ছেলে মেয়ে গেছেন গতকাল শনিবার বেলা ১১টায় পশ্চিম ঝালকাঠির ইছানিল মাধ্যমিক বিদ্যালয় মাঠে জানাজা শেষে পারিবারিক কবরস্থানে মরদেহ দাফন ঝালকাঠি থানা আওয়ামী লীগের সাবেক সভাপতি ঝালকাঠি পৌরসভার মেয়র আফজাল হোসেনের বাবা ঝালকাঠি প্রতিনিধ মৃত্যুবার্ষিকীবাবু ফরিদীজাতীয় কবিতা পরিষদ ফরিদপুর শাখার সাবেক সভাপতি কবি বাবু ফরিদী অ্যাডভোকেট কমল কৃষ্ণ গুহএর ষষ্ঠ মৃত্যুবার্ষিকী উপলক্ষে ফরিদপুরের গোয়ালচামটে নিজ বাসায় ধর্মীয় অনুষ্ঠানের আয়োজন হয়েছে</t>
   </si>
   <si>
-    <t>ঢাকা মেডিকেল কলেজ হাসপাতালে অচেতন অবস্থায় ভর্তি অরবিন্দ রায় ৪০ নামের এক ব্যবসায়ী গতকাল শুক্রবার মারা গেছেন পরিবারের ধারণা অজ্ঞান পার্টির খপ্পরে পড়েছিলেনঢাকা মেডিকেল কলেজ হাসপাতাল সূত্র গত বৃহস্পতিবার সন্ধ্যার গাজীপুরের টঙ্গীর কলেজগেট এলাকা অচেতন অবস্থায় অরবিন্দকে উদ্ধার ঢাকা মেডিকেল কলেজ হাসপাতালের ভবনে ভর্তি গতকাল বেলা তিনটার মারা যানঅরবিন্দের স্ত্রী স্বপ্না রায় সাংবাদিকদের অরবিন্দের গ্রামের বাড়ি রংপুরের কাউনিয়ায় টঙ্গীর কলেজগেটসংলগ্ন এক বাসায় থাকতেন অরবিন্দ টেক্সটাইল প্রকৌশলী বৃহস্পতিবার সকােল অরবিন্দ মতিঝিলে সন্ধ্যার কয়েকজন মুঠোফোন নম্বরে যোগাযোগ জানান টঙ্গী বাসস্ট্যান্ডের অরবিন্দ অচেতন অবস্থায় পড়ে আছেন হাসপাতালে অরবিন্দের ৪৫ টাকা খোয়া গেছেটঙ্গী থানার ওসি ইসমাইল হোসেন সাংবাদিকেরা ফোন সম্পর্কে পেরেছি</t>
-  </si>
-  <si>
     <t>সিরি আগের ৭ ম্যাচে গোল দলের এক নম্বর স্ট্রাইকার সমালোচনার বিষমাখা তির একের এক ছুটছিল গঞ্জালো হিগুয়েইনের একমাত্র ঢাল কোচ রাফায়েল বেনিতেজ কিছুর পরও ওপর আস্থা বলেছিলেন খাঁচায় বন্দী ক্ষুধার্ত সিংহের হয়ে একসঙ্গে অনেকগুলো গোল ক্ষুধা মেটাবেতখন পারত হিগুয়েইনকে উদ্বুদ্ধ করতেই বেনিতেজ জানত কোচের কথাটা এভাবে সত্যি প্রমাণ নাপোলি স্ট্রাইকার পরশু রাতে ভেরোনার বিপক্ষে ম্যাচে আগের ৭ ম্যাচে গোল পাওয়ার আক্ষেপ ঘোচালেন ৩ গোল দুর্দান্ত হ্যাটট্রিকে নাপোলিও ৬২ গোলে উড়িয়ে দিল ভেরোনাকে এভাবে কথা সত্যি উচ্ছ্বসিত নাপোলি কোচ বেনিতেজও ম্যাচ শেষে রসিকতা আজকে হিগুয়েইনকে খাঁচা ছেড়ে দিয়েছিলাম বুধবারের ম্যাচের আগ শান্ত কাল বুধবার নাপোলির পরের ম্যাচটা আটালান্টার সঙ্গেওদিকে মনশেনগ্লাডবাখের গোলশূন্য ড্র বুন্দেসলিগার চ্যাম্পিয়ন বায়ার্ন মিউনিখ আগের ম্যাচটিতেই চ্যাম্পিয়নস লিগে রোমাকে উড়িয়ে দিয়েছিল ৭১ গোলে দুর্দান্ত কয়েকটি আক্রমণের পরও প্রতিপক্ষের জালে বল পাঠাতে পারায় হতাশ গ্লাডবাখের জার্মান মিডফিল্ডার ক্রিস্টফ ক্রেমার কৃতিত্বটা দিয়েছেন প্রতিপক্ষ গোলরক্ষককে বায়ার্নের ম্যানুয়েল নয়্যারের একজন গোলরক্ষক থাকত ১২টি গোল হজম করতেই হতো শেষ গোল খেতে হয়নি খুশি বায়ার্ন কোচ পেপ গার্দিওলাও জিততেই চেয়েছিলাম ড্রটাও ভালো ফল ৪ পয়েন্টের ব্যবধানে বুন্দেসলিগায় শীর্ষে আছি চিন্তার নেইএকই রাতে ভিয়ারিয়ালকে ২১ গোলে হারিয়ে যৌথভাবে লা লিগার পয়েন্ট তালিকায় শীর্ষে উঠে এসেছে সেভিয়া ৯ ম্যাচ বার্সেলোনা সেভিয়া দলেরই পয়েন্ট ২২ গোল ব্যবধানে এগিয়ে বার্সেলোনা ৯ ম্যাচে ২১ পয়েন্ট রিয়াল মাদ্রিদ তিন নম্বরে এএফপি রয়টার্স</t>
   </si>
   <si>
@@ -144,9 +129,6 @@
     <t>মামুনুর রশীদ বরেণ্য অভিনেতা নাট্যকার পরিচালক বিটিভিতে প্রচারিত ধারাবাহিক নাটক উজান গাঙের নাইয়াএতে অভিনয় নাটকটি তৈরি বিবিসি মিডিয়া অ্যাকশন যৌথভাবে পরিচালনা গিয়াসউদ্দিন সেলিম বাশার জর্জিস উজান গাঙের নাইয়ানাটকে চরিত্রের নাম হায়দার ছোটবেলায় লোক দেখেছি গ্রামের মানুষকে সঠিক দিকনির্দেশনা দিয়ে আগলে রাখত হায়দারের মতো মানুষের জায়গা দখল নিয়েছে এনজিওর মতো প্রতিষ্ঠানগুলো এসেছে জনপ্রতিনিধিরা একটা লাভ হয়েছে নাআমাদের নাটকনাটকের মান খুবই হতাশ নাটকের মান নিম্নমুখী বাজেটের অভাবে অল্প সময়ের নাটক নামাতে সেদিক উজান গাঙের নাইয়া সম্পূর্ণ ব্যাতিক্রম একটা কথা বলতেই বাংলাদেশের নাটকের জায়গা অনেকটাই দখল নিয়েছে ভারতীয় সিরিয়ালগুলোবঙ্গভঙ্গআরণ্যক নাটক মঞ্চে আনছে নাম বঙ্গভঙ্গ আমিই লিখেছি নির্দেশনা দিচ্ছেন ফয়েজ জহির মাসের ২৫ তারিখে মঞ্চে নাটকটির উদ্বোধনী প্রদর্শনী সীমান্তের ঘটনা সীমান্তে ধরনের মানুষ যায় একজন ব্যক্তির পাসপোর্ট বাংলাদেশে ঢুকতে চাইছেন ফ্যান্টাসি ধরনের গল্পএবার ঈদে পরিচালনাএবার নাটক পরিচালনা করছি নাম বাবা কোথায় একজন উচ্চপদস্থ কর্মকর্তা অবসরগ্রহণের বাসায়ই পান বাসার ভেতরে বিশৃঙ্খল অবস্থা বাসার শৃঙ্খলা ফিরিয়ে আনার উদ্যোগ নেন বাবার চরিত্রে অভিনয় এম শামসুজ্জামানআমার কাজবিটিভির ধারাবাহিক তৈরি করেছি নাম শান্তিপাশা ডটকম ইউএনডিপির উদ্যোগে নাটকটি তৈরি হয়েছে মাসুম রেজা লিখেছেন পরিচালনা করেছি আমিবিনোদন প্রতিবেদক</t>
   </si>
   <si>
-    <t>সেঞ্চুরিয়ন টেস্টের তৃতীয় দিনেই নিশ্চিত গিয়েছিল ওয়েস্ট ইন্ডিজের হার ফলোঅনে পড়া দলটি দক্ষিণ আফ্রিকার একমাত্র ইনিংস পিছিয়ে ২৭৫ রানে দ্বিতীয় ইনিংসে ২ উইকেটে ৭৬ রান তৃতীয় দিনটি পার খানিকটা আশা জাগিয়ে ম্যাচ বাঁচানোর চতুর্থ দিনে অবিশ্বাস্য করল ক্যারিবীয়রা পরাজয়ই সাততাড়াতাড়ি সকালে ঘণ্টা খানেকের ১৫৩ ওভারেই অলআউট ওয়েস্ট ইন্ডিজ টেস্টটা ইনিংস ২২০ রানে জিতে নিল দক্ষিণ আফ্রিকা কৃতিত্ব ক্যারিবীয়দের দিলে সুবিচার ডেল স্টেইনের ৬ উইকেট প্রোটিয়া ফাস্ট বোলারই ছিঁড়েখুঁড়ে ফেলেছেন ওয়েস্ট ইন্ডিজের ব্যাটিং৩৪ রানে ৬ উইকেট নিয়েছেন টেস্ট ক্রিকেটে বিশ্বের এক নম্বর বোলার আগের ওয়েস্ট ইন্ডিজের দ্বিতীয় ইনিংসে ৫ বল খুঁড়িয়ে খুঁড়িয়ে মাঠ ছেড়েছিলেন কুঁচকিতে টান পড়ায় স্টেইনই কাল ফিরেই দেখালেন রুদ্রমূর্তি দিনের তৃতীয় ওভারে লিওন জনসনকে উইকেটকিপারের ক্যাচ বানিয়ে চতুর্থ ওভারে লাফিয়ে ওঠা গ্লাভসে লাগিয়ে চন্দরপলও ক্যাচ ডি ভিলিয়ার্সকে পঞ্চম ওভারে স্যামুয়েলসকেও কাভারে ডিন এলগারের ক্যাচ বানালেন ম্যাচ আসলে তখনই শেষ একজন কম খেলা ওয়েস্ট ইন্ডিজ অলআউট ১৩১ রানেইএকমাত্র ইনিংসে ২০৮ রান ম্যাচসেরা প্রোটিয়া অধিনায়ক হাশিম আমলা অন্যদিকে ইনিংসে ওয়েস্ট ইন্ডিজের পুরো দল মিলে ২০১ ১৩১ ব্যাটিংদুর্দশার নিজেদেরই দুষেছেন ক্যারিবীয় অধিনায়ক দিনেশ রামদিন ভালো যেভাবে আউট হতাশার দক্ষিণ আফ্রিকা বিশ্বের এক নম্বর দল সকালে ডেল স্টেইনও অসাধারণ এক স্পেল সবাইকে বিপক্ষে গুছিয়ে খেলা আমিও আছিআমলাও প্রশংসায় ভাসিয়েছেন স্টেইনকে ডেল অসাধারণ বোলিং আজকের বোলিং সামলাতে বিশ্বের যেকোনো দলই হিমশিম খেতসিরিজের দ্বিতীয় টেস্ট পোর্ট এলিজাবেথে ২৬ ডিসেম্বর বক্সিং ডেতে তথ্যসূত্র এএফপি ক্রিকইনফো</t>
-  </si>
-  <si>
     <t>cricket</t>
   </si>
   <si>
@@ -168,9 +150,6 @@
     <t>অতিবর্ষণের কারণে মধ্য ইন্দোনেশিয়ায় পাহাড়ধসে ১৮ মৃত্যু আহত গতকাল নিখোঁজ ৯০ গত শুক্রবার গভীর রাতে জাভা প্রদেশের জেমব্লাং গ্রামে দুর্ঘটনা ঘটে ভূমিধসে গ্রামটির ১০৫টি বাড়ি কাদার স্রোতে ভেসে ৪২০ বাসিন্দাকে আশ্রয়কেন্দ্রে শ সেনা পুলিশ উদ্ধার তৎপরতা স্থানীয় বাসিন্দারাও অংশ নেয়এপি</t>
   </si>
   <si>
-    <t>মুঠোফোন অপারেটর রবির গ্রাহকেরা রোববার মূল্যে ২৮টি ইন্টারনেট ওয়েবসাইট পারবেন ফেসবুকের ইন্টারনেট সেবাদাতা সম্প্রসারণ বিভাগ ইন্টারনেট ডট ওআরজির উদ্যোগে সেবাটি ২৮টি ইন্টারনেট সাইটের রয়েছে ফেসবুক সরকারের তথ্যউপাত্তের ওয়েবসাইট সংবাদ ক্রীড়া কৃষি ইকমার্স অনলাইনে বেচাকেনার পোর্টাল মূল্যে এসব সাইটের টেক্সট তথ্য গেলেও ছবি ভিডিও কনটেন্ট ডাউনলোডের গুনতে অর্থ উদ্যোগটি চালুর সংশ্লিষ্টদের কথা এসব তথ্য গেছেএকজন গ্রাহক ইন্টারনেট ডট অর্গে লগইন চুক্তিবদ্ধ প্রতিষ্ঠান সংস্থার সেবা পেতে চায় কোনো ইন্টারনেট চার্জ লাগবে ইন্টারনেট ডট ওআরজিতে সরাসরি ঢুকে অ্যাপের মাধ্যমেও সেবা খরচে উদ্যোগটি দেশের ইন্টারনেট ৮ ১০ শতাংশ বাড়বে সংশ্লিষ্ট ব্যক্তিরা আশা করছেনগত ২২ এপ্রিল উদ্যোগটি হওয়ার কথা থাকলেও জটিলতার কারণে পিছিয়ে যায় রাজধানীর ওয়েস্টিন হোটেলে উদ্বোধন ডাক টেলিযোগাযোগ তথ্যপ্রযুক্তি প্রতিমন্ত্রী জুনায়েদ আহমেদ ইন্টারনেট ডট ওআরজির গ্লোবাল অপারেটর পার্টনারশিপ পরিচালক মার্কো ম্যাকলেইনেন সেবার উদ্বোধনী অনুষ্ঠানে যোগ ঢাকায় এসেছেন সরকারের অ্যাকসেস টু ইনফরমেশন এটুআই প্রকল্প উদ্যোগটির যুক্ত এটুআই প্রকল্পের পলিসি পরামর্শক আনীর চৌধুরী শুরুতে জাতীয় তথ্য বাতায়ন ইন্টারনেট ডট ওআরজির পর্যায়ক্রমে সরকারের পোর্টাল ওয়েবসাইট সেবার আওতায় আসবেসরকারের ওয়েবসাইটের থাকছে মন্ত্রী পরিষদ বিভাগ প্রধানমন্ত্রীর কার্যালয় কৃষি মন্ত্রণালয় গণশিক্ষা মন্ত্রণালয় আইসিটি বিভাগ অন্যান্য উল্লেখযোগ্য ওয়েবসাইটের সংবাদভিত্তিক ওয়েবসাইট বিডিনিউজ টোয়েন্টিফোর আলো চাকরি খোঁজার ওয়েবসাইট বিডিজবস ক্রীড়াবিষয়ক ইএসপিএনক্রিকইনফো শিক্ষাবিষয়ক ওয়েবসাইট শিক্ষক উইকিপিডিয়া উল্লেখযোগ্য</t>
-  </si>
-  <si>
     <t>বগুড়ায় নারী খেলোয়াড় তৈরি জেলা মহিলা ক্রীড়া সংস্থার উদ্যোগে ফুটবল ভলিবল কাবাডি খেলায় দীর্ঘমেয়াদি প্রশিক্ষণ কার্যক্রম হয়েছে শহরের সবুজবাগ তাপসী রাবেয়া বালিকা উচ্চবিদ্যালয় মাঠে উদ্বোধন সংস্থার সভানেত্রী রুবিনা ইয়াসমিন তাপসী রাবেয়া বালিকা উচ্চবিদ্যালয়ের ম্যানেজিং কমিটির সভাপতি ছানাউল্লা ছানার সভাপতিত্বে অনুষ্ঠানে জেলা মহিলা ক্রীড়া সংস্থার সহসভাপতি ফরিদা ইয়াসমীন সম্পাদক দিলরুবা আমিনা আক্তার যুগ্ম সম্পাদক ডালিয়া নাসরিন শারীরিক শিক্ষাবিদ সমিতির সম্পাদক আবদুল হান্নান তাপসী রাবেয়া বালিকা উচ্চবিদ্যালয়ের প্রধান শিক্ষক জহুরুল ইসলাম প্রমুখ</t>
   </si>
   <si>
@@ -180,9 +159,6 @@
     <t>ক্যামেরুনের উত্তরাঞ্চলে বোকো হারামের ১২৩ জঙ্গি নিহত বার্তা সংস্থা এএফপির প্রতিবেদনে গত বৃহস্পতি শুক্রবার সীমান্তবর্তী ফোটোকল শহরে চাদের সেনাবহরে জঙ্গিরা হামলা চালায় বোকো হারামের ১২৩ জঙ্গি নিহত হামলায় চাদের তিন সেনা নিহত ১২ আহত প্রতিবেশী ক্যামেরুনে বোকো হারামের তৎপরতা হুমকি বাড়ছে পরিপ্রেক্ষিতে জঙ্গিগোষ্ঠীকে মোকাবিলায় ১৭ জানুয়ারি সরঞ্জামসহ সেনাবহর পাঠায় চাদ</t>
   </si>
   <si>
-    <t>যন্ত্রের মানুষ হেরে হয়ে দাঁড়িয়েছে গৃহপালিত প্রাণী এক সময় আসবে পিতামাতা অভিভাবকের জায়গায় সন্তানকে শিক্ষা দেওয়ার দায়িত্ব নেবে মোবাইল ফোনের যন্ত্র যুক্তরাষ্ট্রের ম্যাসাচুসেটসে অনুষ্ঠানে অ্যাপলের সহপ্রতিষ্ঠাতা স্টিভ ওজনিয়াক শিক্ষার্থীদের উদ্দেশ্যে কথা প্রযুক্তিবিষয়ক ওয়েবসাইট সিনেটের এক প্রতিবেদনে তথ্য জানানো হয়েছেস্টিভ জবস স্টিভ ওজনিয়াক মিলে সত্তরের দশকে গড়ে তুলেছিলেন অ্যাপল ১৯৮০ সালে অ্যাপল ছেড়ে ওজনিয়াক হিসেবে ব্যবস্থাপনার চেয়ে প্রকৌশল করতেই ভালো লাগে এরপর স্টার্টআপ উদ্যোক্তা প্রতিষ্ঠান দাতব্য ব্যস্ত আছেন অ্যাপলে একজন সম্মানসূচক কর্মকর্তার পদে রয়েছেন বাৎসরিক বৃত্তি নেনস্টিভ ওজনিয়াক ২০০ বছর যন্ত্রের মানুষ হেরে শ্রেণিকক্ষের কম্পিউটার বসালেও শিশুদের অধিক স্মার্ট তোলা সম্ভব নাওজনিয়াকের মতে যন্ত্রকে অধিক গুরুত্ব দেওয়ার গৃহপালিত প্রাণীতে পরিণত হয়েছিনিজের প্রসঙ্গে স্টিভ ওজনিয়াক প্রযুক্তি ভালোবাসি সবকিছু পরীক্ষানিরীক্ষা চালিয়ে দেখি কমপক্ষে পাঁচটি আইফোন অ্যান্ড্রয়েড ফোন আছেওজনিয়াক বিশ্বের কথা কল্পনা মোবাইল ফোনের যন্ত্রগুলো সন্তানদের হয়ে শিক্ষা দেবে শ্রেণিকক্ষে শিক্ষাদান প্রসঙ্গে শিক্ষার্থীদের ওজনিয়াক শ্রেণিকক্ষের অধিক প্রযুক্তিপণ্য রাখার পরিবর্তে প্রতিটি শ্রেণিকক্ষে শিক্ষার্থীর সংখ্যা কমিয়ে ভালো শিক্ষার্থী সঙ্গীর চেয়ে প্রযুক্তি বিষয়ে আগ্রহ এগিয়ে বিষয়টি শেখাতে বিষয় ভালো লাগবে নয়কৃত্রিম বুদ্ধিমান যন্ত্র তৈরিতে অধিক গুরুত্ব দিচ্ছি ধরনের প্রশ্নের উত্তরে ওজনিয়াক যন্ত্রকে অধিক গুরুত্ব দিয়ে ফেলেছি ২০০ বছর ক্ষমতা ছিনিয়ে করেছেম্যাসাচুসেটসের ম্যাসমিউচুয়াল সেন্টারে শিক্ষার্থীদের ওজনিয়াক সবচেয়ে গুরুত্বপূর্ণ জিনিসটা সৃজনশীলতা জ্ঞান সময় মানুষ বই পাওয়া নিজেকে সবকিছুর শিক্ষা স্বপ্নকে বাস্তব দরকার আয়ত্ত হবেএর বুদ্ধিমান যন্ত্র সংশয়ের কথা বলেছিলেন স্টিভ ওজনিয়াক বলেছিলেন মানুষের ভয়াল খারাপ ভবিষ্যৎ অপেক্ষা ভবিষ্যতে মানুষের ক্ষমতা কেড়ে নেবে কম্পিউটার কৃত্রিম বুদ্ধিমান যন্ত্রগুলো মানুষের অশুভ হয়ে দাঁড়াবেআরও পড়ুন ভবিষ্যৎ ভয়ংকর</t>
-  </si>
-  <si>
     <t>science-tech</t>
   </si>
   <si>
@@ -195,9 +171,6 @@
     <t>গত ছয় বছরে রাজনৈতিক বিরোধ সহিংসতার কারণে অরাজনৈতিক খুন ২৭টি নিহত ব্যক্তিদের শিশু পথচারী শ্রমজীবী মানুষ সংবাদপত্রে প্রকাশিত খবর এসব তথ্য ধরনের অপ্রকাশিত খবরও রয়েছেগত বছরের ২৪ জুন চট্টগ্রামে দরপত্র যুবলীগের গ্রুপের গোলাগুলির পড়ে নিহত শিশু আরমান দরপত্র বছরের ২৩ জুলাই যুবলীগের গ্রুপের গোলাগুলিতে পড়ে রিকশাচালক মিরাজ হোসেন নিহত হনঠাকুরগাঁওয়ে সহকারী প্রিসাইডিং কর্মকর্তা জোবায়দুল হক শেরপুরে আওয়ামী লীগ জাতীয় পার্টির সমর্থক চেয়ারম্যান পদপ্রার্থীর এজেন্ট ফারুক হোসেন আজের উদ্দিন নিহত হনরাজনৈতিক ঘটনায় পড়ে নিহত মৌলভীবাজারে শিশু লোকমান হোসেন ১৪ রাজশাহীতে পুলিশের কনস্টেবল সিদ্ধার্থ আচার্য চাঁপাইনবাবগঞ্জে প্রকৌশলী তৌহিদুল ইসলাম ফলবিক্রেতা এবাদত সিরাজগঞ্জে রাজমিস্ত্রি সাকমান শিশু সুমন সরকার ১২ সবজি ব্যবসায়ী ইমরান হোসেন মিলন রহমান ঢাকাসিলেট মহাসড়কে যাত্রী নাসির উদ্দিন সিলেটে অটোরিকশাচালক সুয়েব আহমদ এমসি কলেজের ছাত্র তাহমিদ মোস্তফা ব্যবসায়ী আবদুর রহমানএ মানিকগঞ্জের হরিরামপুর উপজেলায় চেয়ারম্যান প্রার্থীকে খুন ভুলক্রমে ভাতিজা দেওয়ান রুবেল হোসেনকে হত্যা জেলায় হরতালসমর্থক আওয়ামী লীগ নেতাদের সংঘর্ষ চলাকালে পুলিশের গুলিতে চারজন নিরীহ ব্যক্তি মারা ছাত্রলীগের গ্রুপের সংঘর্ষে পড়ে গত ৩ সেপ্টেম্বর গাজীপুরে নিহত সুতা ব্যবসায়ী সেলিম হোসেনবাগেরহাটে ইউনিয়ন পরিষদের ইউপি চেয়ারম্যান খান জাহিদ হাসানের মোটরসাইকেলের চালক মুন্না কুষ্টিয়ার আমবাড়িয়া ইউনিয়ন পরিষদের চেয়ারম্যানের সঙ্গী আফজাল ভুট্টো খুন হনছাত্রলীগের গ্রুপের গোলাগুলিতে পড়ে ২০১০ সালে নিহত ঢাকা বিশ্ববিদ্যালয়ের মেধাবী ছাত্র আবুবকর সর্বশেষ ১৪ ডিসেম্বর চট্টগ্রাম বিশ্ববিদ্যালয়ে ছাত্রলীগের গ্রুপের বন্দুকযুদ্ধে নিহত শিক্ষার্থী তাপস সরকার</t>
   </si>
   <si>
-    <t>খেলার শেষ বাঁশি বাজল আক্রমণ চালাল ভ্যালেন্সিয়া প্রতিআক্রমণে নেইমারের বাড়িয়ে বল অর্ধেক মাঠ একাই টেনে নিলেন লিওনেল মেসি ভ্যালেন্সিয়া গোলরক্ষক ডিয়েগো আলভেজের ওয়ানঅনওয়ানে চিপ চাইলেন হাত বাড়িয়ে বল ঠেকিয়ে আলভেজ তাতেও শেষ রক্ষা গোল দিয়েই ছাড়লেন মেসি নাটকীয়তায় ভরপুর মেসির গোলটার মাহাত্ম্য অন্যরকম বার্সার জার্সিতে ৪০০তম গোল বার্সার ২০ ব্যবধানে জয়ে মেসির ৪০০ গোলের আনন্দেও পূর্ণতা গোলটা পেতে পারতেন ২০ মিনিটে হেডে গোল সুযোগটা হাতছাড়া ৪১ মিনিটে ডান পায়ে শটে বল পাঠিয়ে পোস্টের বাইরে মেসির হেড ডান পায়ের দুর্বলতা নিন্দুকেরা আরেকবার মুখ খোলার সুযোগ পেল ৫৫ মিনিটে শূন্যে ভেসে ভলিটা কঠিনই দুর্ভাগ্য ৬৪ মিনিটে অসাধারণ ফ্রিকিক লাগল ক্রসবারে শেষ আক্ষেপ দূর অন্তিম মুহূর্তের নাটকীয় গোলেএমনিতে পয়েন্ট টেবিলে নিঃশ্বাস দূরত্বে রিয়াল মাদ্রিদ লিগে পয়েন্টের পার্থক্য একটু পা হড়কালেই সর্বনাশ ভাবনা নিয়েই মৌসুমের শেষ সময়ে মাঠে নামতে বার্সাকে ভ্যালেন্সিয়ার বিপক্ষে ঘরের মাঠে ভাবনাটা শুরুতে চাপ দাঁড়াল মেসিনেইমারদের প্রতিপক্ষের একের এক আক্রমণ অগোছাল রক্ষণ বিপরীতে একাধিক সুযোগ হাতছাড়াসর্বনাশই বসেছিল বার্সার বার্সা সমর্থকদের স্বস্তি লুইস সুয়ারেজ মেসির গোলে জিতেই মাঠ ছেড়েছে লুইস এনরিকের দলঅথচ শুরুটা দুর্দান্তই মিনিটেই লিওনেল মেসির ডিফেন্স চেরা পাসে দারুণ এক ফিনিশিংয়ে দলকে এগিয়ে নিলেন সুয়ারেজ প্রভাত দিনের পূর্বাভাস সময় ঠিকঠাক বার্সা এগিয়ে উল্টো তটস্থ ভ্যালেন্সিয়ার একের এক আক্রমণে ২২ মিনিটে ভ্যালেন্সিয়া লক্ষ্যে শট নিয়েছে চারটি বার্সা ৯ মিনিটে ফরোয়ার্ড রদ্রিগোকে বক্সে ফাউল পেনাল্টি পেল ভ্যালেন্সিয়া পেনাল্টি প্রশ্ন তোলাই বার্সা সমর্থকদের বুক কাঁপছে ত্রাতা এলেন ক্লদিও ব্রাভো দারুণ সেভে দফা সেভ বার্সাওসাহসের সঙ্গেই লড়েছেন ব্রাভো চোখধাঁধানো সেভ বার্সা গোলরক্ষক বার্সার সৌভাগ্য ৩৩ মিনিটে ভ্যালেন্সিয়া ফরোয়ার্ড পাকোর শটটা লেগেছে পোস্টে ব্রাভোরএ জয়ে ৩২ ম্যাচে বার্সার পয়েন্ট ৭৮ রিয়ালের ৩১ ম্যাচে ৭৩ রাতেই মালাগার বিপক্ষে মাঠে নামবেন রোনালদোরা ম্যাচে রিয়াল জিতলে দলের পয়েন্ট পার্থক্য আবারও নেমে আসবে দুইয়ে</t>
-  </si>
-  <si>
     <t>সভাসমাবেশ আন্দোলনসংগ্রামসহ গত সিটি করপোরেশন নির্বাচনে নিষ্ক্রিয় ভূমিকা পালন ৩৫ নেতা রাজশাহী মহানগর আওয়ামী লীগের কমিটি বাদ পড়ছেনগত শনিবার রাজশাহী মেডিকেল কলেজের কাইছার রহমান চৌধুরী মিলনায়তনে অনুষ্ঠিত রাজশাহী মহানগর আওয়ামী লীগের সম্মেলন অনুষ্ঠানের পর্বে সম্মেলন প্রস্তুতি কমিটির আহ্বায়ক কমিটির সভাপতি এইচ এম খায়রুজ্জামান লিটন এসব কথা সময় মঞ্চে প্রধান অতিথি হিসেবে উপস্থিত আওয়ামী লীগের সভাপতিমণ্ডলীর সদস্য স্বাস্থ্য পরিবারকল্যাণমন্ত্রী মো নাসিম</t>
   </si>
   <si>
@@ -225,9 +198,6 @@
     <t>গোপন জরিপে নেতিবাচক ফল শারীরিক অবস্থার কারণে মনোনয়ন পাননি চট্টগ্রামের সাবেক মেয়র এম মহিউদ্দিন চৌধুরী কেন্দ্রীয় চট্টগ্রাম আওয়ামী লীগের জ্যেষ্ঠ নেতাদের কথা তথ্য মিলেছে আ জ ম নাছিরের মেয়র প্রার্থী বিষয়ে ঢাকা শনিবার চট্টগ্রাম নগরের চশমা হিলের বাসায় মহিউদ্দিন চৌধুরী সাংবাদিকদের দল দলের সিদ্ধান্ত অবশ্যই মানতে প্রার্থী চেয়েছি প্রত্যাহার করেছি দলের নাছির সমর্থন মাঠে নেমে প্রচারপ্রচারণার কৌশল নির্ধারণ করব প্রধানমন্ত্রীর কার্যালয়ের একজন কর্মকর্তার তথ্যমতে আসন্ন সিটি করপোরেশন নির্বাচনে দলের প্রার্থী নির্ধারণ প্রধানমন্ত্রী শেখ হাসিনার নির্দেশে তিন সিটি করপোরেশন এলাকায় জরিপ চালানো চট্টগ্রাম সিটি করপোরেশন এলাকায় চালানো জরিপে বেশির ভাগ নেতাকর্মীই আ জ ম নাছিরকে মেয়র প্রার্থী মত সরকারি গোয়েন্দা সংস্থার চালানো জরিপেও আ জ ম নাছিরকে মেয়র প্রার্থী মত আসে আওয়ামী লীগের সম্পাদকমণ্ডলীর সদস্য মহিউদ্দিন চৌধুরী চট্টগ্রামে আওয়ামী লীগকে আগলে রেখেছেন কথা সত্য বয়স শারীরিক অবস্থা আগের কিডনির জটিলতাসহ রোগে আক্রান্ত ভবিষ্যতের কথা চিন্তা আ জ ম নাছিরকে চট্টগ্রাম সিটি করপোরেশনে মেয়র প্রার্থী গতকাল শুক্রবার রাতে চট্টগ্রাম সিটি করপোরেশনে মেয়র প্রার্থী নির্ধারণ আওয়ামী লীগের কেন্দ্রীয় চট্টগ্রামের জ্যেষ্ঠ নেতাদের গণভবনে ডাকেন প্রধানমন্ত্রী শেখ হাসিনা বৈঠকের প্রধানমন্ত্রী শেখ হাসিনা মহিউদ্দিন চৌধুরীর ছেলে মহিবুল হাসানের একান্তে কথা বিষয়ে মহিবুল হাসান আলোকে প্রধানমন্ত্রী বাবার শারীরিক অবস্থার খোঁজখবর নেন শরীর ভালো প্রধানমন্ত্রীকে বলেছি চট্টগ্রাম আওয়ামী লীগের স্থানীয় দুজন নেতা জানান বাংলাদেশ ক্রিকেট বোর্ডের পরিচালক নিয়মিত ঢাকায় আসেন নাছির আওয়ামী লীগের কেন্দ্রীয় নেতাদের নিয়মিত যোগাযোগ রাখেন চট্টগ্রাম মহানগরের সম্পাদক নির্বাচিত বৃদ্ধি পায় আওয়ামী লীগের প্রচার প্রকাশনা সম্পাদক হাছান মাহমুদ আ জ ম নাছিরের অত্যন্ত ঘনিষ্ঠ ছাত্রজীবনে সমস্যায় নাছিরের সহযোগিতা নিতেন হাছান মাহমুদও আ জ ম নাছিরের কেন্দ্রীয় নেতাদের বুঝিয়েছেন সবকিছু নাছিরের অন্যদিকে মহিউদ্দিন চৌধুরী কেন্দ্রীয় নেতাদের যোগাযোগ রাখেন তৃণমূল কর্মীদের সখ্য মহিউদ্দিন চৌধুরীকে বাদ হলোজানতে চাইলে আওয়ামী লীগের সভাপতিমণ্ডলীর সদস্য মোশাররফ হোসেন ওনাকে বাদ শারীরিক অবস্থার কারণে প্রার্থী চাননি প্রধানমন্ত্রীসহ আন্তরিকভাবেই মহিউদ্দিন চৌধুরী নিজেকে এক সপ্তাহ মেয়র প্রার্থী হিসেবে ঘোষণা দিয়েছিলেনএমন প্রশ্নের জবাবে মনের জোরে বলেছিলেন পরিবারের চাপে সিদ্ধান্ত পরিবর্তন চাইলে আওয়ামী লীগের যুগ্ম সম্পাদক জাহাঙ্গীর কবির নানক মহিউদ্দিন চৌধুরীকে বাদ সমঝোতার চট্টগ্রাম সিটি করপোরেশন নির্বাচনে প্রার্থী নির্ধারণ একজন উদীয়মান রাজনীতিবিদকে সুযোগ</t>
   </si>
   <si>
-    <t>ব্যবসাবাণিজ্য সমাজে নৈতিকতার মান শক্তিশালী ব্যবসায়ের মুনাফা ছড়িয়ে মানুষ পৃথিবীর উপকারের বঙ্গবন্ধু আন্তর্জাতিক সম্মেলন কেন্দ্রে গতকাল শনিবার মেট্রোপলিটন চেম্বার অব কমার্স অ্যান্ড ইন্ডাস্ট্রি এমসিসিআই আয়োজিত এমসিসিআইয়ের শতবর্ষ পদক অনুষ্ঠানে থাইল্যান্ডের চুলালংকর্ন ইউনিভার্সিটির সাসিন গ্র্যাজুয়েট ইনস্টিটিউট অব বিজনেস অ্যাডমিনিস্ট্রেশনের পরিচালক দীপক জেইন কথা এমসিসিআইয়ের ১১০তম বর্ষপূর্তি উপলক্ষে ব্যবসায় প্রবণতা রূপান্তর ব্যবসা সমাজের অন্তর্ভুক্তিমূলক নেতৃত্ব শীর্ষক বক্তৃতা প্রধান অতিথি অর্থমন্ত্রী আবুল মাল আবদুল মুহিত অনুষ্ঠানে সমাজের গণ্যমান্য ব্যক্তিরা উপস্থিত পদক অনুষ্ঠানে শিল্পব্যবসাবাণিজ্য ব্যবসায়ে সুশাসন সামাজিক দায়বদ্ধতাসহ শ্রেণিতে ২০ ব্যক্তি প্রতিষ্ঠানকে এমসিসিআইয়ের শতবর্ষ পদক ব্যক্তি প্রতিষ্ঠানগুলোর প্রতিনিধিদের হাতে ক্রেস্ট অর্থমন্ত্রী এমসিসিআইয়ের সহসভাপতি আনিস খান অনুষ্ঠানে দীপক জেইনকে পরিচয় দীপক জেইন বর্তমান বিশ্বে ব্যবসাবাণিজ্যের ধরন উনিশ শতক সাম্রাজ্যবাদ এক রাষ্ট্র আরেক রাষ্ট্র দখল করত উদ্দেশ্য এভাবেই ক্ষমতা অর্জন ক্ষমতা দেখানো বিশ শতকে আসে মুক্ত বাজার প্রতিযোগিতা পুঁজিবাদ অনুঘটকের ভূমিকায় রাষ্ট্রের পরিবর্তে আসে করপোরেশন সংস্থা উদ্দেশ্য মুনাফা অর্জনের সাফল্যের পথে অগ্রসর একুশ শতকে ছাপিয়ে আসে মানবসম্পদের উন্নয়ন উদ্যোক্তাবাদ নেপথ্যে রাষ্ট্র সংস্থাও রয়েছেন নাগরিকেরা উদ্দেশ্য তাৎপর্যপূর্ণ দিনের উদ্যোক্তাদের খাত হিসেবে গ্রাহকসেবা হেলথকেয়ার ওয়েলথকেয়ার গ্রাহক অংশগ্রহণ গণমাধ্যম বিনোদন গ্রাহক আতিথেয়তা পর্যটন হোটেলরেস্তোঁরার কথা উল্লেখ দীপক জেইন বক্তৃতায় ধারণা তৈরির ব্যবসাবাণিজ্যের ধরন পাল্টে কথাও ধরেন দীপক উদাহরণ উড়োজাহাজের টিকিট বিক্রি মাইল দীপক গতানুগতিকতা বেরিয়ে চিন্তা সৃষ্টির মানসিকতা তৈরি প্রধান নির্বাহী কর্মকর্তারা সিইও খোলা ভাবতে শিখছেন এমসিসিআইয়ের শতবর্ষ পদক শিল্পায়নে পথিকৃৎ শ্রেণিতে পদক প্রয়াত নুরুল কাদের স্যামসন এইচ চৌধুরীকে দুজনের ছেলে ওমর কাদের খান তপন চৌধুরী পদক গ্রহণ করপোরেট সুশাসন ব্যবসায় পরিবেশ উন্নয়ন শ্রেণিতে পদক পেয়েছে ট্রান্সকম লিমিটেড এসিআই উদ্যোক্তা উন্নয়ন শ্রেণিতে প্রাণআরএফএল গ্রুপ এপেক্স ফুটওয়্যার করপোরেট সামাজিক দায়বদ্ধতা শ্রেণিতে ইউনিলিভার বাংলাদেশ ব্রিটিশ আমেরিকান টোব্যাকো বাংলাদেশ দক্ষতা উন্নয়ন শ্রেণিতে খান অ্যান্ড কোম্পানি শিক্ষা শ্রেণিতে এমএম ইস্পাহানী দারিদ্র্য বিমোচন সামাজিক উন্নয়ন শ্রেণিতে গ্রামীণ ব্যাংক ব্র্যাক গ্রিন বিজনেস শ্রেণিতে রহিমআফরোজ রিনিউয়েবল এনার্জি ভিয়েলাটেক্স গ্রুপ তথ্যপ্রযুক্তি উন্নয়ন শ্রেণিতে বাংলাদেশ অ্যাসোসিয়েশন অব সফটওয়্যার অ্যান্ড ইনফরমেশন সার্ভিসেস বেসিস বাংলাদেশ কম্পিউটার সমিতি বিসিএস হেলথ অ্যান্ড হাইজেনিক শ্রেণিতে সুপ্রিম কোর্টের জ্যেষ্ঠ আইনজীবী রফিকউল হক বারডেম কৃষি গবেষণার খাদ্যনিরাপত্তা শ্রেণিতে বাংলাদেশ ধান গবেষণা ইনস্টিটিউট ব্রি ইলেকট্রনিক মিডিয়ার কৃষি খাতে অবদান শ্রেণিতে চ্যানেল আইকে পদক আইনজীবী রফিকউল হক ট্রান্সকম গ্রুপের চেয়ারম্যান লতিফুর রহমান স্কয়ার গ্রুপের পরিচালক তপন চৌধুরী গ্রামীণ ব্যাংকের ভারপ্রাপ্ত ব্যবস্থাপনা পরিচালক মো শাহজাহান বারডেমের চিকিৎসক নাজমুন্নাহার খান গ্রুপের কর্ণধার সালাউদ্দিন কাশেম খান এপেক্স গ্রুপের পরিচালক নাসিম মঞ্জুর ব্রির গবেষক শাহজাহান কবীর বেসিসের পরিচালক রাসেল আহমেদ ইস্পাহানী গ্রুপের পরিচালক মির্জা আলী মেহরোজ ইস্পাহানীসহ প্রতিষ্ঠানগুলোর প্রতিনিধিরা অর্থমন্ত্রীর পদক নেন স্বাগত বক্তব্যে রোকেয়া আফজাল রহমান এমসিসিআইয়ের ১১০ বছর মানে এমসিসিআইয়ের ১১০ বছর সাফল্যের ১১০ বছর সাফল্য উদ্যোক্তাদের সাফল্য বাংলাদেশের সাফল্য সাফল্যের পেছনে দেশের রাজনীতিবিদ নিয়ন্ত্রক সংস্থা গণমাধ্যমেরও অবদান রোকেয়া আফজাল রহমান বিশ্বের দ্বিতীয় বৃহত্তম তৈরি পোশাক রপ্তানিকারক দ্বিতীয় বৃহত্তম তুলা আমদানিকারক খাদ্যে স্বয়ংসম্পূর্ণ গত ১০ বছরে ক্ষেত্রেই সাফল্য দেখিয়েছি সময় একটা টেকসই অর্থনীতি সুন্দর বাংলাদেশ গড়ার যাচ্ছি</t>
-  </si>
-  <si>
     <t>যুক্তরাষ্ট্রের মধ্যবর্তী নির্বাচনে প্রেসিডেন্ট বারাক ওবামার ডেমোক্রেটিক পার্টির পরাজয়ের খবর দেশটির আইনসভার নিম্নকক্ষ প্রতিনিধি পরিষদের ৪৩৫টি আসনেই মঙ্গলবার নির্বাচন অনুষ্ঠিত হয়েছে বড় রকমের রদবদল হয়নি রিপাবলিকান দল নির্বাচনের আগেও সংখ্যাগরিষ্ঠ আসনের অধিকারী অন্যদিকে আইনসভার উচ্চকক্ষ সিনেটের একতৃতীয়াংশ ৩৬টি আসনে নির্বাচন হয়েছে ডেমোক্র্যাটরা আসন হারানোর কারণে সিনেটে সংখ্যাগরিষ্ঠতার অবসান হয়েছে যুক্তরাষ্ট্রের আইনসভা কংগ্রেস রিপাবলিকানদের সম্পূর্ণ নিয়ন্ত্রণাধীন হয়েছেএটা ঘটনা মধ্যবর্তী নির্বাচনে প্রেসিডেন্টের দল খারাপ ফলাফল তদুপরি এবারের নির্বাচনে যেসব আসনে নির্বাচন হয়েছে সেগুলোর এমনকি যেগুলোয় ক্ষমতাসীন ডেমোক্র্যাট সিনেটররা প্রার্থী অনেকগুলোই ডেমোক্র্যাটদের অনুকূলে এসব সিনেটর বিজয়ী হয়েছিলেন ২০০৮ সালে নির্বাচনে ওবামা প্রথমবার বিজয়ী ডেমোক্র্যাটদের অনুকূলে জোয়ার তৈরি হয়েছিল এটাও সত্য ডেমোক্র্যাট প্রার্থীদের পরাজয় অনাকাঙ্ক্ষিত মিলে নির্বাচনে ডেমোক্র্যাটরা হারবেন অনুমান আশা হয়তো শেষরক্ষা টেনেটুনে সংখ্যাগরিষ্ঠতা হয়নিএখন প্রশ্ন হলো সিনেটে ক্ষমতার হাতবদলে প্রেসিডেন্ট ওবামা কতটা বিপদগ্রস্ত যুক্তরাষ্ট্রের পররাষ্ট্রনীতিতে প্রভাব পড়বেঅভ্যন্তরীণ রাজনীতিতে প্রেসিডেন্টের সংকট তৈরি অপ্রত্যাশিত প্রকৃতপক্ষে বছর ওবামা প্রতিনিধি পরিষদের বাধার মুখে অভ্যন্তরীণ এজেন্ডা বাস্তবায়নে একটা সাফল্যের মুখ দেখেননি এবারে পরাজয় শাপে বর হয়ে বিষয়ে অভিবাসী বিষয়ে ওবামার প্রতিশ্রুত আইনি সংস্কারের প্রচেষ্টা গত ছয় বছর বারবার মুখ থুবড়ে পড়েছে নির্বাহী ক্ষমতা সামান্যই অর্জন পেরেছেন প্রেসিডেন্ট নির্বাহী ক্ষমতার সবটাই বলাও অভিবাসীসংক্রান্ত আইনের সংস্কার দেশে ৮০ লাখ কাগজপত্রহীন অভিবাসী আছেন কথিত বৈধতা প্রদানের প্রশ্নটি রাজনৈতিকভাবে তাৎপর্যপূর্ণ ধরনের পদক্ষেপ রাজনৈতিকভাবে গুরুত্বপূর্ণ হিস্পানিক জনগোষ্ঠীর সমর্থন লাভ রক্ষা অত্যন্ত জরুরি ডেমোক্র্যাট রিপাবলিকান উভয়ের সমভাবে প্রযোজ্য বিষয়ে সাফল্য হওয়ার পেছনে রিপাবলিকানরাই দায়ী কেননা ডেমোক্র্যাট সংখ্যাগরিষ্ঠ সিনেটে মর্মে পাস হওয়া প্রস্তাব আইনে পরিণত হয়নি প্রতিনিধি সভা পাস করেনি সংস্কার বিশেষভাবে ডেমোক্রেটিক পার্টির দরকার কেননা হিস্পানিক জনগোষ্ঠী ডেমোক্রেটিক পার্টির সমর্থনের ঘাঁটি বলেই পরিচিত ২০০৮ সালে ওবামার বিজয়ে জনগোষ্ঠী আশাবাদী বিষয়ে অনুকূল ব্যবস্থা এখনো অগ্রগতি হওয়ায় একধরনের হতাশা রয়েছে বছর অনুষ্ঠেয় প্রেসিডেন্ট নির্বাচনে সমর্থন রাখতে এক বছরের বিষয়ে সুনির্দিষ্ট পদক্ষেপ ডেমোক্র্যাটদের অত্যাবশ্যকঅন্যদিকে রিপাবলিকানরা জানেন গত প্রেসিডেন্ট নির্বাচনে পরাজয়ের অন্যতম অভিবাসী জনগোষ্ঠীর সমর্থনের অভাব অভিবাসী জনগোষ্ঠীগুলোর হিস্পানিকরা রাজনৈতিকভাবে সবচেয়ে সক্রিয় হিস্পানিকদের রিপাবলিকানদের সমর্থন তৈরির একমাত্র পথ বিষয়ে ইতিবাচক মনোভাব প্রদর্শন জনগোষ্ঠীর অনুকূলে পদক্ষেপে শামিল হওয়া রিপাবলিকানদের মধ্যকার সবচেয়ে রক্ষণশীল অংশ অভিবাসীদের সহনশীল দলের নেতারা জানেন রাজনৈতিক বিবেচনায় বিষয়ে পদক্ষেপ গত বছরে বিষয়ে বাধা দিয়েছেন সুফল ডেমোক্র্যাটরা একাই ভোগ করুন চাননি কংগ্রেসে সংখ্যাগরিষ্ঠতা লাভ দেখাতে প্রেসিডেন্ট ওবামা নন তাঁরাই অভিবাসীদের দেখিয়ে চাইতে নির্বাচনে হিস্পানিক অভিবাসী জনগোষ্ঠীর সমর্থন বাড়াতে নির্বাচনের পক্ষের একধরনের আপস রফা হওয়ার সম্ভাবনা তৈরি হয়েছে ইতিমধ্যে পক্ষেই হয়েছে বিষয়ে একত্রে চায় অর্থ পক্ষ নিজ নিজ লাভের হিসাব বাদ দিয়ে আগের যেকোনো সময়ের তুলনায় সম্ভাবনা বলেই যায় বিনিময়ে ওবামাকে দেখার বিষয় অভ্যন্তরীণ বিষয়ে ওবামার এজেন্ডা বাস্তবায়নে বাধার সৃষ্টি স্বাস্থ্য বিমা সংস্কারকে বাতিল করলেও বড় ধরনের পরিবর্তনের রিপাবলিকানরা নিশ্চিত তেমনি অভিবাসন বিষয়ে আইনি পরিবর্তনের সম্ভাবনা বেড়েছেকিন্তু রিপাবলিকানদের বিজয়ে প্রেসিডেন্ট ওবামা সবচেয়ে চাপে পড়বেন অনুসৃত পররাষ্ট্রনীতি সাংবিধানিকভাবে পররাষ্ট্রনীতি বিষয়ে সর্বোচ্চ ক্ষমতার অধিকারী হচ্ছেন প্রেসিডেন্ট শেষ বিচারে বড় ধরনের কাজের কংগ্রেসের অনুমোদন নিতেই তদুপরি কংগ্রেস চাইলে প্রেসিডেন্টের পররাষ্ট্রনীতি বাস্তবায়নে বাধা তৈরি হওয়ার আশঙ্কা দফায় আগের যেকোনো সময়ের চেয়ে কেননা রিপাবলিকানরা বছর ধরেই আসছিলেন ওবামা প্রশাসন পররাষ্ট্রনীতি অনুসরণ অত্যন্ত দুর্বল চাপ দিচ্ছিল যুক্তরাষ্ট্র শক্তি প্রদর্শনের পথ বেছে নেয় সিরিয়া প্রশ্নে রিপাবলিকান সিনেটরদের আগের করলেই গোড়া যুক্তরাষ্ট্রের প্রত্যক্ষ সংযুক্তির দাবি করছিলেন সিরিয়ায় আসাদ সরকারের বিরুদ্ধে কঠোর ব্যবস্থা ব্যর্থতার কারণেই আইএসেরউদ্ভব হয়েছেইরান প্রশ্নে ওবামা প্রশাসনের পদক্ষেপের মূল কথা আলাপআলোচনার সমাধানে পৌঁছা রিপাবলিকানরা চাপ প্রয়োগের পথ বেছে ইরানের পক্ষ উৎসাহ বহাল ভাবার বিষয় কেননা ইরান চাইছিল পারমাণবিক কর্মসূচি হ্রাস বিনিময়ে ওপর আরোপিত নিষেধাজ্ঞা প্রেসিডেন্ট নির্বাহী ক্ষমতার সাময়িক স্থায়ী একমাত্র কংগ্রেস ইরান চুক্তি চাইবে স্থায়ী হওয়ার আশঙ্কা রয়েছে মাসের শেষ পাব কেননা ২৯ নভেম্বরের বিষয়ে একটা ফল পাওয়ার কথা ইরানের আলোচনা চলছিল সময় রিপাবলিকান দলের সিনেটররা নিষেধাজ্ঞা আরোপের এক প্রস্তাব পাস করানোর কথা স্মরণ ইরান প্রশ্নটি মধ্যপ্রাচ্যবিষয়ক নীতির সংশ্লিষ্ট হোয়াইট হাউস সিনেটের ধরনের চাপের মুখে পড়বে অনুমান পারেঅতীতে কংগ্রেস দলের সংখ্যাগরিষ্ঠতা হারায় প্রেসিডেন্টরা পররাষ্ট্র বিষয়ে মনোযোগ প্রেসিডেন্ট রোনাল্ড রিগ্যান অবস্থায় তৎকালীন সোভিয়েত ইউনিয়নের অস্ত্র চুক্তি অবস্থা ওবামা দেশের বাইরে মনোযোগ দেবেন রিপাবলিকান সিনেট যেকোনো ধরনের পদক্ষেপ গ্রহণে বাধা দেবে ওবামা এসব বাধা উতরাবেন অংশত নির্ভর রাজনৈতিক কৌশলের ওপর অংশত নির্ভর সারা পৃথিবীতে ঘটছে ওপরআলী রীয়াজ যুক্তরাষ্ট্রের ইলিনয় স্টেট ইউনিভারসিটির রাজনীতি সরকার বিভাগের অধ্যাপক</t>
   </si>
   <si>
@@ -294,9 +264,6 @@
     <t>সাতক্ষীরা শহরে সড়ক বিভাগের জায়গা দখল নির্মাণ ঘর ঘরের টাঙানো আওয়ামী লীগ বঙ্গবন্ধু স্মৃতি পাঠাগারের সাইনবোর্ডসম্প্রতি সরেজমিনে সাতক্ষীরাকালীগঞ্জ সড়কের পশ্চিম পাশে শহরের ইটেগাছা হাটের মোড়ে টিনের ছাউনী কাঠের তক্তা নির্মাণ ঘর ৭০ ফুট দৈর্ঘ্য ২০ ফুট প্রস্থের ঘরের সামনের এক পাশে টাঙানো সাতক্ষীরা পৌরসভার ৮ নম্বর ওয়ার্ড আওয়ামী লীগের সাইনবোর্ড আরেক পাশে ৮ নম্বর ওয়ার্ড বঙ্গবন্ধু স্মৃতি পাঠাগারের সাইনবোর্ড ২০০২ সালে স্থানের পাশে দখল নির্মাণ জেলা বিএনপির কার্যালয় ২০০৭ সালে প্রশাসন কার্যালয়টি উচ্ছেদ করেএকইভাবে পানি উন্নয়ন বোর্ডের পাউবো কার্যালয়ের সড়ক বিভাগের জায়গায় নির্মাণ ৭ নম্বর ওয়ার্ড আওয়ামী লীগের কার্যালয় ৭ নম্বর ওয়ার্ড প্রবীণ বঙ্গবন্ধু সমর্থক গোষ্ঠী ৭ নম্বর কমিউনিটি পুলিশিং ফোরামের অফিস নিউ বন্ধু ট্রান্সপোর্ট এজেন্সি পুরোনো জিনিসপত্র ক্রয়বিক্রয়ের দোকান পণ্য পরিবহনের কমিশন এজেন্টের অফিসসহ দোকানইটেগাছা হাটের মোড়ে নির্মিত ঘরের পাশে চাবিক্রেতা ফজর আলী জানান ৮ নম্বর ওয়ার্ড আওয়ামী লীগের সম্পাদক মো আনারুল ইসলাম ঘর নির্মাণ কথা জানান এলাকার শ্রমিক সর্দার ইসলামপুর গ্রামের হাজেল মোল্যানাম প্রকাশ শর্তে আওয়ামী লীগের স্থানীয় এক নেতা জানান জায়গা দখল ঘর নির্মাণ ওয়ার্ড আওয়ামী লীগের সাইনবোর্ড ঝোলানো বাস্তবে এসব জায়গা ভাড়া মাছ ব্যবসায়ীদের কাছেনাম প্রকাশে অনিচ্ছুক স্থানীয় ব্যক্তি জানান ৭ নম্বর ওয়ার্ড আওয়ামী লীগের সভাপতি জাহাঙ্গীর হোসেন পাউবোর সড়ক বিভাগের জায়গায় কমিউনিটি পুলিশিং ফোরাম প্রবীণ বঙ্গবন্ধু সমর্থকগোষ্ঠী দলের কার্যালয় নির্মাণ একইভাবে জায়গা দখল ব্যবসা কামানগর এলাকার আবদুল হামিদ শাহিনুর রহমান আশরাফুল ইসলাম আবদুল হাকিম নিশিকান্ত কর্মকার এছাক আলী আবদুল গফুর বাবলুর রহমান থানাঘাটা গ্রামের আবুল হোসেন খলিলুর রহমান আনোয়ার হোসেন জয়নাল হোসেনসহ অনেকেপৌরসভার ৮ নম্বর ওয়ার্ড আওয়ামী লীগের সম্পাদক আনারুল ইসলাম জানান দলীয় কার্যালয় পাড়ার ছেলেরা একটা ক্লাবঘর জেলা পর্যায়ের নেতাদের এসব হয়েছে৭ নম্বর ওয়ার্ড আওয়ামী লীগের সভাপতি ওয়ার্ডের কমিউনিটি পুলিশিং ফোরামের সম্পাদক জাহাঙ্গীর হোসেন জমি পড়ে দলীয় কার্যালয় উঠে বললে উঠে যাব আবদুল হামিদ শাহিনুর রহমানসহ কয়েকজন জানান ব্যবসা সড়ক বিভাগ দিলে ইজারা নেবেনসাতক্ষীরা জেলা আওয়ামী লীগের সভাপতি জেলা পরিষদের প্রশাসক মুনসুর আহমেদ জানান সম্পর্কে জেলা আওয়ামী লীগের সম্পাদক জানেন দলীয় দখল থাকলে বিরুদ্ধে ব্যবস্থা জানান তিনিসাতক্ষীরা সড়ক বিভাগের উপবিভাগীয় প্রকৌশলী এসডিই মোয়াজ্জেম হোসেন জানান ইটেগাছা হাটের জায়গা দখল জেনে পারবেন পানি উন্নয়ন বোর্ডের জায়গা দখল ব্যবসা সম্পর্কে তালিকা দ্রুত উচ্ছেদের ব্যবস্থা নেবেন</t>
   </si>
   <si>
-    <t>দাদা মাথায় উইগ পরেন মানে পরচুলা বলেই হি হি হাসল রেণু রেণু কলিগ একটা প্রজেক্ট ম্যানেজমেন্টের ওপর কোর্স করছিরেণুর কথা শুনে মাথা ঝিমঝিম রাগে সারা শরীর কাঁপে রাগলে তোতলাতে থাকি রেণুর কটমট তাকিয়ে বলি বলছেন এসব মাথায় চুল মাথাটা সামনের বাড়িয়ে শিশুর দেখাতে থাকি রেণু তোলপাড় হাসেরেণু খেপে গেলেন তাড়াতাড়ি চলেন বাবা আছেন কথা বলেছিশুনে মন ভালো হয়ে যায় রেণুর খুনসুটি গায়ে লাগে খানিকটা বোকা বোকা ঢঙে বলি বাবা বলবেন রেণু মুখটা বাঁকিয়ে হাসি হাসি ভঙ্গিতে চলেন নিজেও জানি বলবেনআমার মন কেমন লাল কৃষ্ণচূড়া ফুল ফুটেছে গাছে রিকশা থামিয়ে একটা কৃষ্ণচূড়া খোঁপায় গুঁজে ইচ্ছা করেআমি উত্তেজনায় ছটফট থাকিরিকশাওয়ালাকে থামতে ঝুপ নেমে পড়ে রেণু তাকিয়ে তাড়া দেয় কই আসেনআমি ধীর পায়ে নামিরেণু পাশে পাশে হাঁটে মিষ্টি হাসে মাথা ঘুরিয়ে তাকিয়ে বলি কথা রেণু শুনল শুনল ঘাড় ঘুরিয়ে আচ্ছা একরকম নির্ভার হয়ে ড্রয়িংরুমে বসিরেণুর বাবা এলেন মিনিট পাঁচেক মোটাসোটা মুখে হাসি হাসান সরি বললামআমি বিনয়ের বলি হ্যাঁ চাচা অসুবিধা ভদ্রলোক হাসছেন অনবরত হাসছেন ঘাবড়ে যাই ভদ্রলোক এখনো বিয়ে করোনি কেনআমি রেণুর কথা ভাবি রেণু পছন্দ কখনো বলেনি সহজে রেণুর বাবা কাঙ্ক্ষিত প্রস্তাবটা যাচ্ছেন গর্বিত ভঙ্গিতে রেণুর বাবার থাকি ফোনের আলাপচারিতায় রেণুর বাবা দাঁড়িয়ে গেছেন বলো সাত কেজির মাছ কেজি চায় রাখো এখনই আসছি রেণুর বাবা হাত বেরিয়ে গেলেনআমি খানিকটা অসহায় হয়ে তাকিয়ে থাকি রেণু পেছনে দাঁড়িয়েছে হাতে আজকের ক্লাসের ডায়েরি হেসে হাসান ভাই বাবা রকমই কালকে সকালে আপনাকে আসতে বললাম অসুবিধা কাল আসব যাওয়ার সময় রেণু ডায়েরিটা ধরিয়ে দিয়ে দেখবেন ক্লাসে মিস গেলাম হেসে ডায়েরিটা বেরিয়ে গেলামসারা রাত ঘুম রেণুর ডায়েরিটা স্পর্শ এটাতে রেণুর স্পর্শ লেগে সকালেই রেণুর বাবার ফোন হাসান সরি কাল ওভাবে একদম হয়নি অফিসে যাওয়ার পারো জরুরিআমি উত্তেজিত চাচা আসছি এক্ষুনি আসছিরেণুর বাবা অপেক্ষায় সালাম দিয়ে বসি এদিকওদিক তাকিয়ে রেণুকে খুঁজি রেণুর বাবা বিনীতভাবে বাবা একটা কথা চাই মহা উৎসাহ বলি চাচারেণুর বাবা তোমাদের অফিসে লিটন নামে চেনো গলা শুকিয়ে কাঠ মিনমিন বলি জি চিনিরেণুর বাবা সাবলীলভাবে ছেলেটাকে রেণুর পছন্দ একটু ছেলেটার খোঁজ পারবে মানে রেপুটেশন চেক আরকিআমি মাথা নাড়ি মাথাটা ঝিমঝিম অপমানে সারা শরীর কাঁপছে সময়ও তোতলাতে থাকি উঠে দাঁড়াতে দাঁড়াতে বলি পারব চাচা পারব</t>
-  </si>
-  <si>
     <t>ডিম্বাশয়ের ক্যানসার জানার রক্ত পরীক্ষাই যুক্তরাজ্যের ইউনিভার্সিটি কলেজ লন্ডনের ইউসিএল একদল বিজ্ঞানী রোগটি শনাক্ত পদ্ধতি বের দাবি ডিম্বাশয়ের ক্যানসার নির্ণয়ের প্রচলিত পদ্ধতিগুলোর দ্বিগুণ কার্যকর এটিরক্ত পরীক্ষার পদ্ধতি প্রয়োগ ডিম্বাশয়ের ক্যানসারের ৮৬ শতাংশই শনাক্ত পরীক্ষামূলক এক গবেষণার ভিত্তিতে বিজ্ঞানীরা কথা জানিয়েছেন জার্নাল অব ক্লিনিক্যাল অনকোলজি সাময়িকীতে গবেষণা প্রতিবেদন প্রকাশিত সারা যুক্তরাজ্যে রক্ত পরীক্ষা প্রয়োগ চিন্তাভাবনা করছেনডিম্বাশয়ের ক্যানসার শনাক্ত বিলম্বের কারণে প্রায়ই প্রাণঘাতী রূপ নেয় ইউসিএলের গবেষকেরা কমপক্ষে ৪৬ নারীর ওপর ১৪ বছরব্যাপী রক্ত পরীক্ষার পদ্ধতিটি প্রয়োগ পান পর্যায়েই ডিম্বাশয়ের ক্যানসার শনাক্ত যুক্তরাজ্যে প্রতিবছর ৭ ১০০ নারীর ডিম্বাশয়ে ক্যানসার পড়ে রোগে বছরে ৪ ২০০ মৃত্যু ক্যানসারের উপসর্গ পেটব্যথা পেট ফুলে খেতে সমস্যা এসব রোগটি শনাক্ত কঠিনডিম্বাশয়ের ক্যানসারে আক্রান্ত রোগীদের বমির সিএওয়ানটুফাইভ নামের রাসায়নিক পদার্থ প্রচুর পরিমাণে বেরিয়ে আসে এটিকে রোগটির লক্ষণ হিসেবে বিবেচনা যুক্তরাজ্যে রোগটি নির্ণয়কারী একদল গবেষক মেনোপজপরবর্তী নারীদের ওপর পরীক্ষা চালান সিএওয়ানটুফাইভের মাত্রা পরিবর্তনের ব্যাপারটি যাচাই পরীক্ষার ৮৬ শতাংশ ক্যানসার রক্ত পরীক্ষার মাধ্যমেই শনাক্ত সমর্থ তাঁরাইউসিএলের অধ্যাপক উষা মেনন বিবিসিকে ভালো ডিম্বাশয়ের ক্যানসার নির্ণয় জীবন বাঁচানো কতটা সম্ভব গুরুত্বপূর্ণ সাফল্যের আশাবাদী মানুষের ওপর পরীক্ষা চালাতে হবেগড়ে চারজন ক্যানসার রোগীর একজনের রোগটি পর্যায়ে পড়ে পর্যায় একটিমাত্র টিউমার ক্যানসার কোষ তৈরি কেবল ছড়িয়ে পড়তে করেছেএমন অবস্থাকে বোঝায় অধ্যাপক মেনন আশাবাদী একাধিক টিউমার তৈরি গেলেও সেগুলো প্রচলিত পদ্ধতিগুলোর তুলনায় শনাক্ত পারলে চিকিৎসায় সাফল্যের সম্ভাবনা বেড়ে যাবেযুক্তরাজ্যজুড়ে নারীদের ডিম্বাশয়ের ক্যানসার শনাক্তকরণের পরিকল্পনা বিশ্বে ধরনের সবচেয়ে বড় পরীক্ষা রক্ত পদ্ধতিতে পরীক্ষার পাশাপাশি আলট্রাসাউন্ড স্ক্যানও চলতি বছরের শেষ পরীক্ষার ফলাফল আশা হচ্ছেযুক্তরাজ্যের মেডিকেল রিসার্চ কাউন্সিলের অধ্যাপক প্যাট্রিক ম্যাক্সওয়েল গবেষণার ফলাফল অত্যন্ত আকর্ষণীয় জাতীয় পর্যায়ে ডিম্বাশয়ের ক্যানসার নির্ণয়ের পরীক্ষা চালানোর পথ খুলে দিয়েছেনতুন পদ্ধতিটি সহজ প্রয়োগ রোগটি শনাক্ত অন্যান্য পদ্ধতির তুলনায় সঠিক ফল মারাত্মক রোগটির বিরুদ্ধে লড়াইয়ের সুযোগ বাড়বে বিজ্ঞানীরা পদ্ধতিকে ডিম্বাশয়ের ক্যানসারের বিরুদ্ধে লড়াইয়ে এক বড় অগ্রগতি হিসেবে বিবেচনা করছেনডিম্বাশয়ের ক্যানসার বিশেষজ্ঞ জেমস ব্রেনটন ক্যানসার রিসার্চ ইউকে নামের গবেষণা প্রতিষ্ঠানে নারীর ডিম্বাশয়ের ক্যানসার ঝুঁকি রক্ত পরীক্ষার পারাটা অত্যন্ত আশাব্যঞ্জক আসলেই জীবন বাঁচানো সম্ভব যাচাই হবেসূত্র বিবিসি ইনডিপেনডেন্ট</t>
   </si>
   <si>
@@ -522,15 +489,9 @@
     <t>প্রিয় শিক্ষার্থী ইংরেজি ২য় পত্রের ২ নং প্রশ্ন আলোচনা করব বহুলব্যবহৃত ব্যবহার১ যানবাহনে ভ্রমণ বোঝাতে পূর্বে ব্যবহৃত ২ বোঝালে পূর্বে ব্যবহৃত ৩ বেতন মাধ্যম বোঝালে পূর্বে ব্যবহৃত ৪ পরিমাপের একক বোঝালে পূর্বে ব্যবহৃত ৫ ব্যক্তির জন্ম বৈবাহিক অবস্থা পেশা বোঝালে পূর্বে ৬ নির্দিষ্ট সময়ের পূর্বে বোঝাতে পূর্বে ব্যবহৃত ১ লক্ষ্য নির্দেশ পূর্বে ব্যবহৃত ২ দিক নির্দেশ পূর্বে ব্যবহৃত ৩ পণ্যের মূল্য নির্দেশ পূর্বে ব্যবহৃত ৪ পছন্দ অগ্রাধিকার বোঝালে পূর্বে ব্যবহৃত ৫ বোঝালে পূর্বে ব্যবহৃত ৬ দূরত্ব সময়ের ব্যাপ্তি বোঝালে পূর্বে ব্যবহৃত ৭ উপকার সুবিধা ধারণা বোঝাতে পূর্বে ব্যবহৃত ৮ কিছুর তুলনা বোঝাতে পূর্বে ব্যবহৃত ৯ কিছুর উপলক্ষে বোঝাতে পূর্বে ব্যবহৃত ব্যবহার১ স্থান বোঝালে পূর্বে ব্যবহৃত ২ সময় বোঝালে পূর্বে ব্যবহৃত বাকি অংশ ছাপা আগামীকালপ্রভাষকঢাকা রেসিডেনসিয়াল মডেল কলেজ</t>
   </si>
   <si>
-    <t>সুন্দরবনের শ্যালা নদীতে তেলবাহী জাহাজডুবির ঘটনায় দায়ী পণ্যবাহী জাহাজ এমটি টোটালের মাস্টারসহ কর্মীকে আটক পুলিশ জাহাজটিও পুলিশ জিম্মায় রেখেছে বর্তমানে আটক জাহাজটি নারায়ণগঞ্জ বন্দরের সোনাকান্দা ডকইয়ার্ডে হয়েছেবন্দর থানার ভারপ্রাপ্ত কর্মকর্তা ওসি মো নজরুল ইসলাম জানান গতকাল রোববার গভীর রাতে বাগেরহাটের পুলিশ নারায়ণগঞ্জের বন্দর থানার পুলিশের সহায়তায় শীতলক্ষ্যা নদীর লক্ষণখোলা এলাকা জাহাজ এমটি টোটালকে আটক সময় জাহাজের মাস্টার মোস্তফা সহকারী মাস্টার ফারুক সুকানি আক্কাস আলী পিয়ার আলীকে আটক পুলিশ আটকের নারায়ণগঞ্জের বন্দর থানায় বাগেরহাট থানায় পাঠানোর প্রক্রিয়া চলছেনারায়ণগঞ্জের পুলিশ সুপার খন্দকার মহিদ উদ্দিন ঘটনার সত্যতা নিশ্চিত</t>
-  </si>
-  <si>
     <t>দেশের জাহাজ নির্মাণ জাহাজ পুনরুৎপাদন শিল্পে বিনিয়োগে আগ্রহ দেখিয়েছে চেক প্রজাতন্ত্রের ব্যবসায়ী উদ্যোক্তারা দেশে জ্বালানি ইস্পাত অবকাঠামো তেলগ্যাসকয়লা উত্তোলন তেলজাত রাসায়নিক পেট্রোকেমিক্যাল ইউরিয়া সার উৎপাদন শিল্পে বিশ্বমানের প্রযুক্তি সরবরাহের প্রস্তাবও দিয়েছেন বাংলাদেশে নিযুক্ত চেক রাষ্ট্রদূত মিলোস্লাভ স্টেসেকের নেতৃত্বে ১২ সদস্যের ব্যবসায়ী প্রতিনিধিদল গতকাল বুধবার শিল্পমন্ত্রী আমির হোসেন আমুর বৈঠক আগ্রহের কথা জানান মন্ত্রণালয়ে বৈঠক অনুষ্ঠিত শিল্প মন্ত্রণালয় পাঠানো এক বিজ্ঞপ্তিতে এসব জানানো হয়চেক রাষ্ট্রদূত টানা ৬ শতাংশের ধারাবাহিক অর্থনৈতিক প্রবৃদ্ধি বাংলাদেশকে বৈদেশিক বিনিয়োগের গুরুত্বপূর্ণ দেশে পরিণত</t>
   </si>
   <si>
-    <t>মেষ ২১ মার্চ২০ এপ্রিল ভর ৬আপনি আছেন এক সামগ্রিক পরিবর্তনের বলয়ে পরিবর্তন আপনাকে শুভদিনের আপনাদের জীবনে পরিবর্তন আসবে দ্রুত বাদবাকিদের অধৈর্য হওয়ার পরিবর্তন এলে ব্যস্ত হয়ে উঠবেন কথা আগাম অভিনন্দন রইলবৃষ ২১ এপ্রিল২১ মে ভর ১আপনাদের বর্তমান সময়ে বিদেশের মাটিতে পা রাখবেন স্থানীয় ভ্রমণ ব্যবসায়ী বৃষর একটা সুসময়ের আবহ গড়ে উঠতে অর্থাৎ আশাবাদী হয়ে উঠতে অন্যান্য পেশায় জড়িত তাঁদেরও পাওয়ার বিশেষত বয়সে তরুণ হৃদয়ের ন্যায্যমূল্য পাবেন আশা যায়মিথুন ২২ মে২১ জুন ভর ৬হৃদয়ের ব্যাপারটাই সপ্তাহে মুখ্য হয়ে দাঁড়াবে আগাম পরামর্শ দিচ্ছি আবেগের বশবর্তী হইয়া আবেগে ভেসে ধীরস্থির বিপর্যয় ঘটবে সপ্তাহে আর্থিক অবস্থা ভালো কর্কট ২২ জুন২২ জুলাই ভর ২ সবদিক দিয়ে স্থানে থাকার পরও যন্ত্রণা ভোগ হয়তো সার্বিক সাফল্য মনের বেদনাএই বিষয়ে প্রস্তুত থাকুন সাফল্যের আগাম অভিনন্দন কষ্টের সমবেদনা রইল সিংহ ২৩ জুলাই২৩ আগস্ট ভর ১ একেবারে নিস্তরঙ্গ জীবন বোঝায় কখনোই জন্যই সিংহের জীবন সর্বদা নাটকীয় বৈচিত্র৵ময় চলতি সপ্তাহে নতুনত্বের অপেক্ষা কন্যা ২৪ আগস্ট২৩ সেপ্টেম্বর ভর ২ সাধারণভাবে কন্যা জীবনে প্রচুর সৌভাগ্য ভোগ সপ্তাহেও ব্যতিক্রম যায় লোকের যোগাযোগের কন্যাকে খানিকটা সতর্ক থাকতে তর্ক চলতে ঝগড়া একেবারেই এভাবে সপ্তাহ শুভ হয়ে উঠবে তুলা ২৪ সেপ্টেম্বর২৩ অক্টোবর ভর ২ সপ্তাহে হাতে তুলাধোনা মন খারাপ ব্যাপারটাই শেষ কল্যাণকর হয়ে দাঁড়াবে সাপে বর আরকি সপ্তাহে লোকের ওপর প্রভাব জোরদার হয়ে উঠবে বৃশ্চিক ২৪ অক্টোবর২২ নভেম্বর ভর ২ ব্যস্ততা হঠাৎ বেড়ে জন্যই অত্যন্ত ভালো লক্ষণ পেশাগত ব্যস্ততার মধ্য দিয়ে সাফল্য স্বীকৃতি আসবে ধনু ২৩ নভেম্বর২১ ডিসেম্বর ভর ৯ চলতি সপ্তাহে দুর্ভাবনা মতো সময় পাবেন কাজের চিন্তা করতেই সপ্তাহ কেটে আর্থিক অবস্থা সাময়িক একটু নিম্নমুখী দেখলে দমে যাবেন সবদিকে শুভ সময় মকর ২২ ডিসেম্বর২০ জানুয়ারি ভর ৩ দেখবেন সময়টা মন হালকা একটু গান শুনুন আড্ডা মকর শক্তিশালী রাশি কথার ওপর আস্থা রাখুন কুম্ভ ২১ জানুয়ারি১৮ ফেব্রুয়ারি ভর ৯ সময়ই দুর্ভাগ্য তৈরি জেনে কাজটা হওয়া তেমনভাবে অনাবশ্যক তর্ক বচসায় লিপ্ত ভালো মন্দের টেনে যাবেন মীন ১৯ ফেব্রুয়ারি২০ মার্চ ভর ৩ রাশির বিচারে রহস্যময়তা চলতি সপ্তাহে এটাকে চেয়ে বেশিতে গড়িয়ে দেবেন অর্থাৎ চলনেবলনে একটু সহজ থাকুন লোকে আপনাকে সহজে বুঝতে তারই ব্যবস্থা করুন সপ্তাহ আনন্দজনক ভাগ্য নিয়ন্ত্রণ শতকরা ৯০ ৯৬ ভাগ বাকিটা ফেট নিয়তি ভাগ্য সময় অনির্দিষ্ট কারণে আপনা গতিপথ বদলাতে রাশিচক্রে নিউমারলজি সংখ্যাজ্যোতিষ পদ্ধতি প্রয়োগ করেছি</t>
-  </si>
-  <si>
     <t>মেনটস বাত্তি জ্বালাও রাত ১১২০২০০ িরভাইভ লাইফস্টাইল বেলা ১১২০১১৫০ সিনেমা তাল বেলা ২০০বিকেল ৫০০ মি নুডলস মিউজিক ক্ল্যাসিক সকাল ৮১৫৮৪৫</t>
   </si>
   <si>
@@ -594,9 +555,6 @@
     <t>মেসিনেইমার দলের অংশ দলের দৃষ্টি প্রতিভাবানের ওপর নিবদ্ধ অবচেতনেই খেলোয়াড়েরা দলের প্রত্যাশার জোয়ালটা কাঁধে নেন অ্যাথলেটিক বিলবাওয়ের বিপক্ষে নেইমারের জোড়া গোলের কথাটিই আন্দ্রেস ইনিয়েস্তা জানিয়েছেন মেসিনেইমার দলের প্রত্যাশা দুজন যেকোনো ম্যাচকেই কারিশমা দিয়েই আসবেন মেসিনেইমারের প্রতিভার ওপর দলের অসম্ভব নির্ভরশীলতার ব্যাপারটিও অস্বীকার চাননি স্প্যানিশ মিডফিল্ডারলা লিগায় তিনটি ম্যাচেই জয় লিগ তালিকায় মুহূর্তে শীর্ষেই বার্সেলোনা বিলবাওয়ের বিপক্ষে সর্বশেষ জয়টি কষ্টার্জিত ম্যাচে কোচ লুইস এনরিকেকে তৃপ্তি জোগাচ্ছে মেসিনেইমারের দারুণ ক্রীড়াশৈলী গোলই নেইমার পেয়েছেন মেসির সহায়তায় যুগলবন্দিতে দারুণ আশাবাদী ইনিয়েস্তাও মেসিনেইমার দলে থাকার অর্থই প্রতিপক্ষের ওপর বিশাল চাপ দুজন থাকলে প্রতিপক্ষের অর্ধে অনেকটাই সুবিধাজনক অবস্থানে রয়েছেনএই দুইয়ের প্রতিভায় ইনিয়েস্তার দারুণ শ্রদ্ধা ভক্তি মেসি নেইমার অসাধারণ প্রতিভাবান খেলোয়াড় দুজনেই অনন্য পরপরই ইনিয়েস্তা মেসিনেইমারে দলের প্রত্যাশার কথাটি প্রতিভাবান ফুটবলারের ওপর দলের প্রত্যাশাটা স্বভাবতই অন্যদের বেশিএই মৌসুমে বার্সেলোনার অধিনায়কত্ব ৩০ বছর বয়সী ইনিয়েস্তা গত মৌসুমের অধিনায়ক জাভি হার্নান্দেজ থাকছেন ডাগআউটে পরও দলে অবদান রাখার ক্ষেত্র ইনিয়েস্তা ব্যাপারটি ভাবনাটা একটু রকমই দেখুন মৌসুম লম্বা লম্বা মৌসুমে কখন খেলোয়াড়কে দরকার মৌসুমে সময় আসবে জাভিকে প্রয়োজন চ্যাম্পিয়ন খেলোয়াড়েরা যেকোনো পরিস্থিতিতেই বাজিমাত জাভি একজন চ্যাম্পিয়ন ফুটবলার সূত্র এএফপি</t>
   </si>
   <si>
-    <t>অবশেষে ঢাকায় প্রধানমন্ত্রী নরেন্দ্র মোদির সফরসঙ্গী আমন্ত্রণ পেলেন পশ্চিমবঙ্গের মুখ্যমন্ত্রী মমতা বন্দ্যোপাধ্যায় আমন্ত্রণ পেলেন আসামের মুখ্যমন্ত্রী তরুণ গগৈ মেঘালয়ের মুখ্যমন্ত্রী মুকুল সাংমাও ত্রিপুরার মুখ্যমন্ত্রী মানিক সরকার বৃহস্পতিবার সন্ধ্যা আমন্ত্রণ পাননি সচিবালয় হয়েছেপ্রধানমন্ত্রী নরেন্দ্র মোদি জুন মাসের ৬ ৭ তারিখে বাংলাদেশ সফরে আসছেনবাংলাদেশের সীমান্ত চুক্তি বাস্তবায়নের ভারতীয় রাজ্যের আন্তর্জাতিক সীমানায় বদল ঘটবে রাজ্যের মুখ্যমন্ত্রীকেই সফরে প্রধানমন্ত্রী আগ্রহী মে মাসের ৮ ৯ তারিখে কলকাতা সফরকালীন মোদি বিষয়ে মমতার কথাও বলেছিলেন কথা এগোয়নি ২৬ তারিখে প্রধানমন্ত্রীর সফর সরকারিভাবে ঘোষিত মুখ্যমন্ত্রীদের বিষয়ে হয়নি গতকাল বুধবার মমতা বন্দ্যোপাধ্যায় আলোকে কথা জানিয়ে বলেছিলেন প্রধানমন্ত্রী সফরে ঘোষণা দিয়েছেন আনুষ্ঠানিকভাবে সফরসঙ্গী বলেননিবৃহস্পতিবার আলোয় খবর বেরোনোর প্রধানমন্ত্রীর সচিবালয় মুখ্যমন্ত্রীকে যোগাযোগ প্রধানমন্ত্রী মুখ্যমন্ত্রী সফরসঙ্গী যোগাযোগের কথা মমতাও স্বীকার চাইছেন চুক্তিগুলো ঢাকায় সই সময় থাকি ধরেছেন আনুষ্ঠানিকভাবে জানানোয় সময় মমতা গুরুত্বপূর্ণ সরকারি রেখেছেন প্রধানমন্ত্রীর একান্ত অনুরোধ ফেরানো কঠিন পড়ুন মোদির আসতে মমতাও</t>
-  </si>
-  <si>
     <t>পদার্থবিজ্ঞান৪১ কোনটি ভুলক ভোল্ট বিভবখ কুলম্ব চার্জগ জুল ওয়াটসেকেন্ডঘ ওয়াট ভোল্টঅ্যাম্পিয়ার৪২ বালক বাড়ির ছাদ বল বেগে ওপরের নিক্ষেপ সময়ে মাটিতে পড়ার মুহূর্তে বলটি ধরতে বাড়ির উচ্চতাক খ গ ঘ ৪৩ কোনটি সত্য নয়ক প্রাসের বিচরণ পথ অধিবৃত্তখ কোণ বৃত্তচাপব্যাসগ বৃত্তীয় গতি একধরনের ঘূর্ণন গতিঘ নিক্ষেপণ কোণ হ্ন পাল্লা সর্বাধিক হয়৪৪ লাল সবুজ বর্ণের স্বচ্ছ কাচকে একটির ওপর আরেকটি সাদা আলো দেখলে আলোর বর্ণ হবেক সাদা খ কালো গ লাল ঘ সবুজ৪৫ লেজারব্যবস্থায় কোনটি নাক লেজার মাধ্যমখ বাইরের আলোক উৎসগ সমান্তরাল দর্পণঘ উত্তল লেন্সরসায়ন৪৬ ডাইক্লোরোমিথেন কার্বনটেট্রাক্লোরাইড অলড্রিনএরা যথাক্রমেক দ্রাবক কীটনাশক হিমকারকখ হিমকারক কীটনাশক অগ্নিনির্বাপকগ কীটনাশক দ্রাবক অগ্নিনির্বাপকঘ হিমকারক অগ্নিনির্বাপক কীটনাশক৪৭ টলুইনের প্রযোজ্যক গন্ধযুক্ত তরল পদার্থখ নাইট্রেশন বিক্রিয়ায় টলুইন বেনজিন অপেক্ষা ২৫ গুণ অধিক সক্রিয়গ বেনজাইল অ্যালকাহল সংশ্লেষণে টলুইন ব্যবহূত হয়ঘ সবগুলো৪৮ নিষ্ক্রিয় গ্যাসের প্রযোজ্য নয়ক যেকোনো পর্যায়ে মৌলের আয়নীকরণ শক্তি সবচেয়ে বেশিখ কোনোটি প্রাকৃতিক গ্যাস ঝরনার পানিতে পাওয়া যায়গ পারমাণবিক সংখ্যা বৃদ্ধির গলনাঙ্ক স্ফুটনাঙ্ক হ্রাস পায়ঘ অভিজাত গ্যাস বলে৪৯ রাসায়নিকভাবে ইউরিয়াকে বলেক অ্যামিনো অ্যাসিডের অ্যামাইডখ অ্যামোনিয়াম কার্বানেটগ কার্বনিক অ্যাসিডের ডাইঅ্যামাইডঘ ডাইঅ্যামিনো কার্বনমনোক্সাইড৫০ যেটি অ্যারোমেটিক অ্যামিনো অ্যাসিড নয়ক গ্লাইসিন খ টিস্টোফ্যানগ ফিনাইল অ্যালানিন ঘ টাইয়োসিন৫১ কস্টিক সোডার হয়ক সাবান কাগজ কৃত্রিম রেশম উৎপাদনেখ জীবাণুনাশক হিসেবেগ পেট্রোলিয়াম পরিষ্কারকরণেঘ যন্ত্রপাতি ধাতব শিট প্রভৃতির পরিষ্কারকরণেউত্তর ছাপা আগামীকালমডেল প্রশ্ন ফারহানা মিথিলাস্যার সলিমুল্লাহ মেডিকেল কলেজ ঢাকামেডিকেলে ভর্তি পরীক্ষামডেল টেস্ট১০ উত্তর৩১ ক ৩২ ক ৩৩ ক ৩৪ খ ৩৫ খ ৩৬ ঘ ৩৭ খ ৩৮ খ ৩৯ ক ৪০ গ</t>
   </si>
   <si>
@@ -1272,9 +1230,6 @@
     <t>চ্যানেল আইবেলা ৩০৫ খণ্ডগল্প ৭১ সুবর্ণা মুস্তাফা রাইসুল ইসলাম আসাদ ইন্তেখাব দিনারএনটিভিসকাল ৮৪৫ হিংসার পতন শাকিব খান পূর্ণিমা হুমায়ুন ফরীদি মিশাআরটিভিদুপুর ১২৩৫ মন তোমাকে দিলাম শাকিল খান পপিদেশ টিভিসকাল ৮০০ গায়েহলুদ রাজ্জাক ববিতাচ্যানেল নাইনসকাল ৯০০ চাকরানী শাবানা অমিত হাসান লিমা আনোয়ার হোসেনজলসা মুভিজসকাল ৯১০ সখী কার প্রসেনজিৎ শতাব্দী রায় অভিষেক ১২১৫ শুভদৃষ্টি জিৎ কোয়েল মল্লিক ৩২০ প্রেম সোহম পায়েল ৬২০ প্রেম বাইচান্স দ্বিজেন সুমন বিশ্বজিৎ আবির লকেট অরিজিৎ ৯৩০ বন্ধন জিৎ কোয়েল মল্লিক ভিক্টর ব্যানার্জিজি সিনেমা১০৩৩ পরিবার মিঠুন মীনাক্ষী ১২২ ম্যায় খিলাড়ি তু আনাড়ি অক্ষয় কুমার সাইফ আলী খান শিল্পা শেঠি ৪৩০ ম্যায়নে পেয়ার কিয়া সালমান খান ভাগ্যশ্রী ৮৩০ ধামাল সঞ্জয় দত্ত রিতেশ আরশাদ ওয়ার্সিসেট ম্যাক্সসকাল ১০৩০ কৃষ হৃতিক রোশন প্রিয়াঙ্কা চোপড়া রেখা ১৩০ গলিয়োঁ রাসলীলা রামলীলা রণবীর সিং দীপিকা পাড়ুকোন ৫৩০ ঔর এক ইলজাম সুমন্ত চার্মি রাহুল দেব ৯৩০ কৃষ্ণা রবি তেজা তৃষ্ণাস্টার মুভিজসকাল ৯৩০ দ্য লিগ অব এক্সট্রা অর্ডিনারি জেন্টেলমেন শন কনোরি নাসিরউদ্দিন শাহ ১২০০ টু ফাস্ট টু ফিউরিয়াস পল ওয়াকার ইভা সেন্ডেস ২০০ মিস্টার বিনস হলিডে রোয়ান অ্যাটকিনসন ৪০০ কিংকং জ্যাক ব্ল্যাক নাওমি ওয়াটস অ্যাড্রিয়ানি ব্রডি ৭৩০ ফ্যান্টাস্টিক ফোর ৯৩০ দ্য হাল্কএইচবিওসকাল ৯২০ অং বাক থ্রি ১১১১ স্ট্রিট ফাইটার ১২১২ দি অ্যাডভেঞ্চারস অব টিনটিন ৩২১ গ্র্যাভিটি জর্জ ক্লুনি স্যান্ড্রা বুলক ৫১০ রিয়েল স্টিল হিউ জ্যাকম্যান ৭৪১ ক্লাউডি উইথ আ চান্স অব মিটবলস ৯৩০ ট্রান্সফর্মারস রিভেঞ্জ অব দ্য ফলেন শিয়া ল্যাবাফ মেগান ফক্স টরটিউরো</t>
   </si>
   <si>
-    <t>নির্বাচনকালীন সরকার বিএনপির দাবির পরিবর্তন জানিয়েছেন দলের চেয়ারপারসন খালেদা জিয়া নিরপেক্ষ সরকারের অধীনেই জাতীয় নির্বাচন গতকাল শনিবার রাতে রাজশাহী জেলা জাতীয়তাবাদী আইনজীবী ফোরামের এক মতবিনিময় সভায় খালেদা জিয়া এসব কথা গুলশানে খালেদা জিয়ার রাজনৈতিক কার্যালয়ে মতবিনিময়ের আয়োজন খালেদা জিয়া দৈনিক পত্রিকার নাম উল্লেখ পত্রিকাসহ পত্রিকা বিভ্রান্তি ছড়িয়েছে চেঞ্জ নিরপেক্ষ সরকারের অধীনে নির্বাচনে অবশ্যই যাব হাসিনা মার্কা নির্বাচনে জনগণ ভোট সুযোগ পাবে ৫ জানুয়ারির নির্বাচনে বিএনপি ভুল করেনি আওয়ামী লীগ ভোটের বাক্স ভর্তি কৌশল রেখেছিল বিএনপিকে নির্বাচনে চেষ্টাও করেছিল বর্তমান নির্বাচন কমিশনের পদত্যাগ দাবি বিএনপির চেয়ারপারসন সংবিধানবিরোধী পদত্যাগ জনগণ ছাড় দেবে অপ্রাপ্তবয়স্কদের নিবন্ধন হালনাগাদ ভোটার তালিকা বাতিল দাবি জানান খালেদা জিয়া বিএনপির জেলা পর্যায়ের কমিটি ঢাকা তৃণমূলের নেতাকর্মীরাই কমিটি ইয়াং জেনারেশনকে নেতৃত্বে আনতে বয়স্করাও পরামর্শ ছাত্রলীগের পক্ষের দ্বন্দ্বে মাগুরায় মায়ের পেটে শিশু গুলিবিদ্ধ ঘটনার সমালোচনা খালেদা জিয়া প্রশ্ন রাখেন পড়েনি কেনবিএনপি অস্তিত্ব সংকটে পড়বেসরকারদলীয় নেতাদের বক্তব্যের জবাবে খালেদা জিয়া বিএনপি সারা জীবন বিএনপি কথায় মানুষের দুঃখকষ্টে পাশে পরগাছাদের কথা শুনে আওয়ামী লীগ ধ্বংস দেশ ধ্বংস রাজনীতিতে গুণগত পরিবর্তন আনবেনএমন অঙ্গীকার ব্যক্ত খালেদা জিয়া আওয়ামী লীগ ভুলে প্রতিহিংসা প্রতিশোধ ভুলে</t>
-  </si>
-  <si>
     <t>ভারতের বিপক্ষে সেঞ্চুরি আফগানিস্তানের বিপক্ষে সেঞ্চুরির মূল্য বিশ্বকাপ ফাইনালে সেঞ্চুরির সমান্তরালে থাকতে গ্রুপ ম্যাচের সেঞ্চুরিসরল তুলনায় বিস্ময় জাগতে ক্রিকেটের সরল অঙ্ক প্রায়ই জটিল হয়ে দাঁড়ায় সহযোগী দেশের বিপক্ষে সেঞ্চুরিও গুরুত্বপূর্ণ হয়ে উঠতে দলকে জেতায় গ্রুপ ম্যাচের সেঞ্চুরিও বিশ্বকাপ ফাইনালের মতো স্মরণীয় ইনিংস বিব্রতকর হারের কিনারা দলকে দেয় জয়ের স্বস্তি পরও কোনো সংশয় থাকলে স্বয়ং মাহেলা জয়াবর্ধনের কণ্ঠেই শুনুনবিশ্বকাপ ফাইনালে সেঞ্চুরি যেকোনো ক্রিকেটারেরই পরম আরাধ্য গত বিশ্বকাপের ফাইনালে স্বপ্ন ছুঁয়েছিলেন জয়াবর্ধনে মুম্বাইয়ে খেলেছিলেন ৮৮ ১০৩ রানের অসাধারণ ইনিংস ওয়াংখেড়ের রাতে জয়াবর্ধনের মুখের হাসি কেড়ে নিয়েছিলেন গম্ভীরধোনিরা কাল আফগানিস্তানের বিপক্ষে ম্যাচসেরার পুরস্কার হাতে সহাস্যে বিশ্বকাপ ফাইনালের সেঞ্চুরির মতোই উপভোগ করেছি আজকের সেঞ্চুরি কঠিন পরিস্থিতি ছিলতা পরিস্থিতি কঠিন তো ছিলই ছবির মতো সুন্দর ডানেডিনের ইউনিভার্সিটি ওভালে কাল উইকেটে গেলেন জয়াবর্ধনে পুঁচকে আফগানিস্তান আঁকছে জয়ের ছবি ২৩৩ রান তাড়ায় শ্রীলঙ্কা ৩ উইকেটে ১৮ খানিক আরেকটি উইকেট অধিনায়ক অ্যাঞ্জেলো ম্যাথুসকে খাদ দলকে টেনে তুলেছেন সাবেক অধিনায়কসেঞ্চুরি হারে শেষ গত বিশ্বকাপ শেষ বিশ্বকাপ শূন্য হারে ম্যাচে নিউজিল্যান্ডের বিপক্ষে শূন্য রানে আউট হয়েছিলেন বাজে শট খেলে কালও তিমিরে নামত দল এসব মুহূর্তেই অভিজ্ঞতা মহামূল্য হয়ে ওঠে জয়াবর্ধনেও কঠিন পরিস্থিতি জয় অভিজ্ঞতার ধারেই উইকেটে নিজেকে বলেছি প্রতিটি বল বুঝে খেলতে শট খেলি ছেড়ে দিই প্রতিটি দেখাতে নিবেদন উইকেট রাখতে হতো স্কোরবোর্ডও সচল রাখার প্রয়োজন চেয়েছি সর্বোচ্চ মনোযোগ দিয়ে খেলতে করেছি চাপে ভেঙে পড়তে শেষ উইকেটে থাকতেশেষ উইকেটে থাকতে পারেননি সেঞ্চুরি ছোঁয়ার পরই ফিরেছেন থার্ডম্যানে ক্যাচ দিয়ে পথের বাকিটুকু পার করিয়েছেন থিসারা পেরেরা জয়াবর্ধনের কণ্ঠে তৃপ্তি মানসিক শক্তির বড় একটা পরীক্ষা ইনিংসে খুবই তৃপ্ত টুর্নামেন্টের পর্যায়েই কঠিন ম্যাচ হওয়ায় এক দিক ভালোই হয়েছে বুঝতে পেরেছি কোথায় কোথায় উন্নতি হবেকতটা উন্নতি জয়াবর্ধনেরা বোঝা মেলবোর্নে ২৬ ফেব্রুয়ারি শ্রীলঙ্কার প্রতিপক্ষ বাংলাদেশ এএফপি রয়টার্স ক্রিকইনফো</t>
   </si>
   <si>
@@ -1284,9 +1239,6 @@
     <t>রোনালদোরিভালদোরা ব্রাজিলকে এগিয়ে যাচ্ছিলেন ম্যাচপ্রতি গোল অলিভার কান জার্মানিকে বয়ে নিচ্ছিলেন গোল ঠেকিয়ে ম্যাচের ম্যাচ গোল ঠেকিয়েই ২০০২ বিশ্বকাপে গড়েছেন ইতিহাস গোল্ডেন বলজয়ী একমাত্র গোলকিপারআগের দুদুটি বিশ্বকাপে স্রেফ ডাগআউট গরম ২০০২ সালে বিশ্বকাপ অভিষেক কানের জাপানকোরিয়ায় অধিনায়কের আর্মব্যান্ড হাতে অধিনায়ক মাঠে সত্যিকার অর্থেই নেতৃত্ব দিয়েছিলেন কাগজেকলমে দুর্বল জার্মান দলের ওপর সেবার প্রত্যাশা গোলবারে চীনের প্রাচীর থাকলে বল ঢুকবে কীভাবে দ্বিতীয় ম্যাচের ইনজুরি সময়ে জার্মানির বিপক্ষে গোল আয়ারল্যান্ডের রবি কিন এরপর ফাইনাল টানা ম্যাচে কানদেয়ালে চিড় ধরাতে পারেনি কোনো দল ফাইনালে খেলতে নেমেছিলেন ডান হাতের অনামিকায় চিড় খেসারতও হয়েছে দুবার জার্মানির জালে বল ঢোকান রোনালদো আগের বীরত্ব মিথ্যা হয়ে যায়নি গোল্ডেন গ্লাভসের পাশাপাশি গোল্ডেন বলও হাতে উঠেছে কানের</t>
   </si>
   <si>
-    <t>টাঙ্গাইলের গোপালপুরে বেলাল হোসেন নামে সিএনজিচালিত অটোরিকশার এক চালককে ছিনতাইকারীরা হত্যা পুলিশ ছিনতাইকারীদের মাইক্রোবাসটি আটক গত বৃহস্পতিবার রাত ১২টার ঘটনা ঘটেগোপালপুর থানার ভারপ্রাপ্ত কর্মকর্তা ওসি জহিরুল ইসলাম জানান গোপালপুর উপজেলার গুলিপেচা গ্রামের বেলাল হোসেন অটোরিকশায় সিএনজি স্টেশন গ্যাস বাড়ি ফিরছিলেন রাত সাড়ে ১১টার ভূঞাপুর উপজেলার কুঠিবয়ড়া এলাকায় পৌঁছালে মাইক্রোবাস ওত পেতে কয়েকজন ছিনতাইকারী গতিরোধ বেলাল হোসেনকে মাইক্রোবাসে অটোরিকশাটি নিয়ন্ত্রণে নেয় ঘটনা স্থানীয় এক ব্যক্তি চিৎকার সময় ছিনতাইকারীরা মাইক্রোবাস ছিনতাই অটোরিকশা তারাকান্দির পালাতে থাকেমুঠোফোনে খবর নলিনবাজার এলাকায় স্থানীয় জনগণ রাস্তায় মাইক্রোবাসটি আটকের মাইক্রোবাসটি জনগণের প্রতিরোধ ভেঙে পালিয়ে অটোরিকশাচালক বেলালকে শ্বাসরোধে হত্যা নারুচি উত্তরপাড়া এলাকায় ফেলে গভীর রাতে লাশ উদ্ধার মাইক্রোবাসটি পার্শ্ববর্তী সরিষাবাড়ী উপজেলার বাড়ইপোটল এলাকা ছিনতাই অটোরিকশাটি নলিন রেলক্রসিং এলাকা পুলিশ উদ্ধার করেছেনিহত অটোরিকশাচালক গোপালপুরের গুলিপেচা গ্রামের মরহুম মনছুর আলীর ছেলে ময়নাতদন্ত শেষে লাশ পরিবারের হস্তান্তর পুলিশ নিহত বেলালের ভাই আবদুল করিম বাদী গোপালপুর থানায় অজ্ঞাত ব্যক্তিদের আসামি মামলা করেছেনশিশু খুন সখীপুর টাঙ্গাইল প্রতিনিধি জানান টাঙ্গাইলের সখীপুরে জুলহাস উদ্দিন ১০ নামের এক শিশুর লাশ উদ্ধার পুলিশ গতকাল শক্রবার বেলা ১১টার উপজেলার বড়চওনানামদারপুর সড়কে বড়চওনা বেপারিপাড়া সেতুর পাশের পুকুর লাশটি উদ্ধার লাশের হাত পা মাথা কান অণ্ডকোষে আঘাতের চিহ্ন দাঁত ভাঙা শিশুটি বড়চওনা গ্রামের মৃত আবুল কাশেমের ছেলে</t>
-  </si>
-  <si>
     <t>পুলিশ ট্রেনিং সেন্টার ১৪তম নারী টিআরসি ব্যাচের সমাপনী কুচকাওয়াজ পুলিশ ট্রেনিং সেন্টারে সকাল আটটা ৪০ মিনিটে</t>
   </si>
   <si>
@@ -1315,6 +1267,54 @@
   </si>
   <si>
     <t>যুক্তরাজ্যের লন্ডনের কেন্দ্রস্থল বাকিংহাম প্যালেসের বাইরে গতকাল বুধবার হাজারো  পুলিশের হাতাহাতি পুঁজিবাদবিরোধী একদল লোক পূর্বঘোষিত কর্মসূচির অংশ হিসেবে মিলিয়ন মাস্ক মার্চ শীর্ষক বিক্ষোভ সময় ঘটনা ঘটে পুঁজিবাদের বিরুদ্ধে বিপ্লবের ডাক কর্মসূচির আয়োজন বৃহস্পতিবার বার্তা সংস্থা এএফপির খবরে অ্যানোনিমাস নামে পুঁজিবাদবিরোধী সংগঠন বিশ্বের শহরে বিপ্লবের ডাক এরই অংশ হিসেবে লন্ডনে হাজারো বিক্ষোভকারী বাকিংহাম প্যালেস মধ্য লন্ডনে বিক্ষোভ বিক্ষোভকারীদের অনেকের মুখে সাদা মুখোশ সময় একমাত্র সমাধান বিপ্লব স্লোগান বিক্ষোভকারীরা সড়কে পুলিশের ধাতব ব্যারিকেড টেনে খুলে ফেলে পুলিশকে লক্ষ্য বোতল সড়কে বিভাজন সৃষ্টিকারী মোচাকার বস্তু ছুড়ে মারে আন্দোলনকারীরা জাতীয় সম্প্রচার কেন্দ্র বিবিসির ভবনেও হামলা চালানোর চালায় পুলিশি বাধায় পণ্ড লন্ডনের কেন্দ্রস্থলে মিছিল সময় বিক্ষোভকারীরা গাড়ির কাচ ভাঙচুর আবর্জনা ফেলার ঝুড়ি সড়কে ফেলে সময় বিক্ষোভকারীদের হামলার ভয়ে এলাকার বিপণিকেন্দ্রের দোকানিরা নিজ নিজ দোকানের দরজা বন্ধ আতশবাজির অপব্যবহার পুলিশের ওপর হামলার অভিযোগে পাঁচজন বিক্ষোভকারীকে আটক পুলিশ</t>
+  </si>
+  <si>
+    <t>ঈদের একদিন টেলিভিশনে আলজাজিরা দেখছিলাম ইসরায়েলের একজন ফিলিস্তিনের একজন টক শোয় অংশ নিচ্ছিলেন জায়গা কেন্দ্রে একজন সঞ্চালক মধ্যস্থতা করছিলেনফিলিস্তিনি প্রশ্ন ১০ মানুষ শান্তিপূর্ণ সমাবেশ করছিলাম ইসরায়েলি সৈন্যরা করলইসরায়েলি ভদ্রলোক প্রশ্ন সন্ত্রাস সমর্থন শান্তিফিলিস্তিনি আলোচক হিংসার বিরুদ্ধে অহিংস আন্দোলনের শান্তিপূর্ণ সমাবেশে ইসরায়েলি সৈন্যরা পাল্টা প্রশ্ন ইসরায়েলি ভদ্রলোককেযিনি কিনা একজন সাবেক কূটনীতিকআপনি ফিলিস্তিনিদের স্বাধীনতাকে সমর্থন নাইসরায়েলি হ্যাঁ ফিলিস্তিনিদের ভাগ্য নিয়ন্ত্রণ অধিকার সমর্থন ফিলিস্তিনিদের মিছিল হয়েছিলআলজাজিরা টেলিভিশনের ফুটেজে বিচ্ছিন্নভাবে হাতে তৈরি অস্ত্র ছোড়া সৈন্যদের আলজাজিরা ফুটেজ কোথায় পেয়েছে জানি কাজেই সত্যতা কোনো মন্তব্য করব আলজাজিরা ফিলিস্তিনিদের সমর্থন ইসরায়েলি বর্বরতার বিরোধিতা কোনো গোপন বিষয় ইসরায়েলি সৈন্যরা আলজাজিরার অফিসের ভেতরেও গোলা ছুড়েছে ইসরায়েলে আলজাজিরা নিষিদ্ধ হয়েছে খবর হোক এরপর বিবিসি সিএনএন দেখি বেশিক্ষণ দেখেছি মনটা বিষণ্ন হয়ে নিউইয়র্ক টাইমসএর বিরুদ্ধে অভিযোগ ইসরায়েল পক্ষপাতিত্বের হিসাবেই ১৩২৮ ফিলিস্তিনি ৫৯ ইসরায়েলি নিহত হয়েছেন ৮ জুলাইয়ের গাজায় ইসরায়েলি হামলায় ৮ ৩০ জুলাই ২৩ দিনে ১৪০০ মানুষের মৃত্যু নারী শিশুরা ইসরায়েলি সৈন্যরা হামলা হাসপাতালে স্কুলে জাতিসংঘের আশ্রয়কেন্দ্রে বাড়িঘর ধুলায় মিশিয়ে আশ্চর্য কোথাও কোনো বিকার শিশুহত্যা নারীহত্যা বিশ্ববিবেককে বিন্দুমাত্র বিচলিত পারছে তো নাআমেরিকার একটা গবেষণা প্রতিষ্ঠান ইস্ট ওয়েস্ট সেন্টার আমন্ত্রণে যুক্তরাষ্ট্র গিয়েছিলাম পনেরোর আলোচনা হচ্ছিল সন্ত্রাস কয়েকজন মোটামুটিভাবে একটা সংজ্ঞা দাঁড় করাতে পেরেছিলাম কোনো একটা উদ্দেশ্য হাসিলের কোনো দাবিদাওয়া আদায় জানান দেওয়ার সংশ্লিষ্ট মানুষ মারা মারা পরোয়া হামলা করাএটাই হলো সন্ত্রাস ১১ সেপ্টেম্বরের টুইন টাওয়ারে হামলায় মারা গিয়েছে নিরস্ত্র বেসামরিক মানুষ সন্ত্রাসী হামলা কোনো একটা রেলস্টেশনে বোমা ফাটানো সন্ত্রাসী কাজআজকে সংজ্ঞাটা ঘুরেফিরে বাজছে ফিলিস্তিনি শিশুটা মায়ের কোলে ঘুমুচ্ছে শিশুরা রাস্তায় সৈকতে দৌড়ঝাঁপ সন্ত্রাস সন্ত্রাসী রাজনীতি সীমান্ত দল মূল্যবোধের সম্পর্ক কোথায় একজনকে নিরস্ত ১৩২৮ মানুষ মেরে ফেলা হলো স্কুলহাসপাতালজাতিসংঘ আশ্রয়কেন্দ্রটেলিভিশন কেন্দ্রে বোমাগোলা ছোড়া সন্ত্রাস নয়তাহলে সন্ত্রাসের বিরুদ্ধে লড়াই সন্ত্রাসমুক্ত পৃথিবী গড়বেন ছারখার ইরাক আফগানিস্তান গণতন্ত্র প্রতিষ্ঠার কথা তছনছ মধ্যপ্রাচ্যের একটার একটা দেশ পাহারা দিয়ে রাখছেন মধ্যপ্রাচ্যেরই আমিরওমরাহতন্ত্র কোথায়আমেরিকার পররাষ্ট্রমন্ত্রী কেরি টেলিভিশনের প্রকাশ্য সাক্ষাৎকারে ইসরায়েলিদের রক্ষা যেকোনো অধিকারকে সমর্থন একটা ফোন ধরেছিলেন অফ দ্য রেকর্ড জানতেন ক্যামেরা খোলা গাজায় পরিচালিত ইসরায়েলি ধ্বংসযজ্ঞকে ফেলেন ইটস আ হেল অব পিনপয়েন্ট অপারেশন এও এখনই এলাকায় উচিতজাতিসংঘের মহাসচিব বান মুন ঘুমন্ত শিশুদের ওপর হামলার চেয়ে লজ্জাজনক প্রেসিডেন্ট ওবামাও গাজায় ক্রমবর্ধমান নারীশিশুসাধারণ মানুষের মৃত্যুতে খুবই উদ্বিগ্ন সত্ত্বেও ইসরায়েলের বিরুদ্ধে একটা কড়া বিবৃতিও রূপকথার গল্পের বাঁদরের কলজে গাছের মগডালে বাঁধা তেমনি কোনো একটা স্বার্থ ইসরায়েলিদের আষ্টেপৃষ্ঠে বাঁধা আলজাজিরা টেলিভিশনেই দেখলাম ইসরায়েলি সংহতির সভা যুক্তরাষ্ট্রে কর্তারা সংহতি জানাচ্ছেন ওবামা ইসরায়েলের বিরুদ্ধে প্রমাণিত ওবামা ক্ষমতায় থাকতে পারবেন নাআমাদের প্রতিবাদ ফেসবুকে হ্যাশট্যাগ দিয়ে গাজা সমর্থন ফিলিস্তিনি দুধের শিশুর রক্তাক্ত হওয়া ঠেকাতে বুঝি বিশ্বশান্তির জন্যই দরকার ফিলিস্তিনিদের একটা স্বাধীন আবাসভূমি যেকোনো স্বাধীনতার আন্দোলনই এক পক্ষের মুক্তির আন্দোলন আরেক পক্ষের চোখে সন্ত্রাসী কর্মকাণ্ড দশকের দশক ফিলিস্তিনিরা মুক্তির লড়ছে ইসরায়েল নাগরিকদের শান্তি নিরাপত্তারজন্য জিরো টলারেন্স প্রদর্শন চলেছে একটার একটা যুদ্ধ হয়েছে ইসরায়েল এলাকা বাড়িয়ে নিয়েছেইসরায়েল ইরানে বিমান পাঠিয়ে সম্ভাব্য পারমাণবিক বোমার কারখানা বোমা মেরে উড়িয়ে দিয়েছেছোট ছোট কবরে ছোট ছোট শরীরগুলোকে শোয়ানো শিশুদের কোনো দোষ কৃতকর্মের ভুগছে পৃথিবীতে অবিচার রবীন্দ্রনাথের মতো ক্ষমা করিয়াছ বেসেছ ভালোআনিসুল হক সাহিত্যিক সাংবাদিক</t>
+  </si>
+  <si>
+    <t>মালয়েশিয়া এয়ারলাইনসের বিধ্বস্ত হওয়া উড়োজাহাজের আরোহীদের লাশ গুরুত্বপূর্ণ মালামাল উদ্ধার প্রক্রিয়া যথাযথভাবে শেষ রাশিয়ার প্রেসিডেন্ট ভ্লাদিমির পুতিনের শেষ সুযোগ সুযোগে ইউক্রেনে সৃষ্ট অস্থিরতার অবসান ঘটানোর পদক্ষেপের কথা পুতিনকে স্মরণ করিয়ে ইউরোপীয় নেতারানেদারল্যান্ডসের আমস্টারডাম মালয়েশিয়ার কুয়ালালামপুরগামী ফ্লাইট  পশ্চিমাসমর্থিত সরকারের অভিযোগ অঞ্চলের রুশপন্থী বিদ্রোহীরা রাশিয়ার তৈরি বুক ক্ষেপণাস্ত্র ছুড়ে উড়োজাহাজটি বিধ্বস্ত বিদ্রোহীরা অভিযোগ অস্বীকার অভিযোগের তির রাশিয়ার সেনাবাহিনীর দিকেওখবরে উড়োজাহাজের ধ্বংসস্তূপ লাশ শনাক্তকরণের বাধা দিচ্ছে সশস্ত্র বিচ্ছিন্নতাবাদীরা নিহত ব্যক্তিদের জিনিসপত্র লুটপাট রাশিয়াপন্থী বিদ্রোহীদের দায়ী হয়েছে এসব অভিযোগ খণ্ডনে রাশিয়ার উপযুক্ত সময় ইউরোপীয় নেতারাগত শনিবার রাতে পুতিনকে টেলিফোন প্রতিক্রিয়া জানান ডাচ প্রধানমন্ত্রী মার্ক রুট উড়োজাহাজ বিধ্বস্তের ঘটনায় ক্ষতিগ্রস্তদের সহযোগিতা দেওয়ার শেষ সুযোগ পুতিনকে প্রমাণ উড়োজাহাজের আরোহীদের মৃতদেহ উদ্ধারের আন্তরিকইউক্রেনে সংঘাত বন্ধে প্রভাব লাগাতে পুতিনের আহ্বান জানিয়েছেন জার্মান চ্যান্সেলর আঙ্গেলা ম্যার্কেল যুক্তরাজ্যের প্রধানমন্ত্রী ডেভিড ক্যামেরন ইউক্রেনের মতো সার্বভৌম দেশকে অস্থিতিশীল তোলার ফল পাচ্ছে রাশিয়া মার্কিন পররাষ্ট্রমন্ত্রী কেরি রাশিয়ার পররাষ্ট্রমন্ত্রী সের্গেই লাভরভকে ফোন উদ্বেগের কথা জানিয়েছেন দুর্ঘটনাস্থলে ঢুকতে তদন্তকারীদের পূর্ণ স্বাধীনতা নিশ্চিত</t>
+  </si>
+  <si>
+    <t>চারবার মেরিলপ্রথম আলো পুরস্কার অনুষ্ঠানটি উপস্থাপনা  মডেল নারী পুরুষ বিভাগে পুরস্কার সেরা মডেল পুরুষ হিসেবে শেষ সবচেয়ে এগিয়ে নোবেল ১৯৯৮ ২০০১ ২০০৩ ২০০৪ সালে জেতেন পুরস্কার অন্যদিকে সেরা মডেল নারী হিসেবে এগিয়ে মৌয়ের নাম ১৯৯৮ ২০০১ সাল টানা চারবার জিতেছেন সেরার পুরস্কার ২০০৮ সালেও মেরিলপ্রথম আলো পুরস্কারে লেগেছিল পরিবর্তনের হাওয়া বছর শেষবারের মতো সেরা ব্যান্ড বিভাগে পুরস্কার সেরা পরিচালক হিসেবে হুমায়ুন আহমেদের জনপ্রিয়তা পরও পুরস্কার পান ২০১২ সালে সর্বশেষ চলচ্চিত্র ঘেটুপুত্র কমলার তিন বছর বাদ গেলেও ২০০২ সাল আজীবন সম্মাননার ধারা সম্মাননা পেয়েছেন সোহরাব হোসেন ২০০২ সুভাষ দত্ত ২০০৩ আব্দুল লতিফ ২০০৪ শাহ্ আব্দুল করিম ২০০৫ ফেরদৌসী মজুমদার ২০০৬ কলিম শরাফী ২০০৭ ফেরদৌসী রহমান ২০০৮ বেবী ইসলাম ২০০৯ সুধীন দাশ ২০১০ ফিরোজা বেগম ২০১১ মুস্তাফা মনোয়ার ২০১২ রামকানাই দাশ ২০১৩ রাজ্জাক ২০১৪ ২০০৫ সাল সেরা টিভি অনুষ্ঠান বিনোদন বিভাগে পুরস্কার শেষ বিভাগে বিজয়ী একটা অনুষ্ঠানই নাম ১৯৯৮ সাল টানা আটবার পায় সেরা টিভি অনুষ্ঠানের পুরস্কার</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ঢাকা মেডিকেল কলেজ হাসপাতালে অচেতন অবস্থায় ভর্তি অরবিন্দ রায় ৪০ নামের এক ব্যবসায়ী গতকাল শুক্রবার মারা গেছেন পরিবারের ধারণা অজ্ঞান পার্টির খপ্পরে পড়েছিলেনঢাকা মেডিকেল কলেজ হাসপাতাল সূত্র গত বৃহস্পতিবার সন্ধ্যার গাজীপুরের টঙ্গীর কলেজগেট এলাকা অচেতন অবস্থায় অরবিন্দকে উদ্ধার ঢাকা মেডিকেল কলেজ হাসপাতালের ভবনে ভর্তি গতকাল বেলা তিনটার মারা যানঅরবিন্দের স্ত্রী স্বপ্না রায় সাংবাদিকদের অরবিন্দের গ্রামের বাড়ি রংপুরের কাউনিয়ায় </t>
+  </si>
+  <si>
+    <t xml:space="preserve">মুঠোফোন অপারেটর রবির গ্রাহকেরা রোববার মূল্যে ২৮টি ইন্টারনেট ওয়েবসাইট পারবেন ফেসবুকের ইন্টারনেট সেবাদাতা সম্প্রসারণ বিভাগ ইন্টারনেট ডট ওআরজির উদ্যোগে সেবাটি ২৮টি ইন্টারনেট সাইটের রয়েছে ফেসবুক সরকারের তথ্যউপাত্তের ওয়েবসাইট সংবাদ ক্রীড়া কৃষি ইকমার্স অনলাইনে বেচাকেনার পোর্টাল মূল্যে এসব সাইটের টেক্সট তথ্য গেলেও ছবি ভিডিও কনটেন্ট ডাউনলোডের গুনতে অর্থ উদ্যোগটি চালুর সংশ্লিষ্টদের কথা এসব তথ্য গেছেএকজন গ্রাহক ইন্টারনেট ডট অর্গে লগইন চুক্তিবদ্ধ প্রতিষ্ঠান সংস্থার সেবা পেতে চায় কোনো ইন্টারনেট চার্জ লাগবে ইন্টারনেট ডট ওআরজিতে সরাসরি ঢুকে অ্যাপের মাধ্যমেও সেবা খরচে উদ্যোগটি দেশের ইন্টারনেট ৮ ১০ শতাংশ বাড়বে সংশ্লিষ্ট ব্যক্তিরা আশা করছেনগত ২২ এপ্রিল উদ্যোগটি হওয়ার কথা থাকলেও জটিলতার কারণে পিছিয়ে যায় রাজধানীর ওয়েস্টিন হোটেলে উদ্বোধন ডাক টেলিযোগাযোগ তথ্যপ্রযুক্তি প্রতিমন্ত্রী জুনায়েদ আহমেদ ইন্টারনেট ডট ওআরজির গ্লোবাল অপারেটর পার্টনারশিপ পরিচালক মার্কো ম্যাকলেইনেন সেবার উদ্বোধনী অনুষ্ঠানে </t>
+  </si>
+  <si>
+    <t>যন্ত্রের মানুষ হেরে হয়ে দাঁড়িয়েছে গৃহপালিত প্রাণী এক সময় আসবে পিতামাতা অভিভাবকের জায়গায় সন্তানকে শিক্ষা দেওয়ার দায়িত্ব নেবে মোবাইল ফোনের যন্ত্র যুক্তরাষ্ট্রের ম্যাসাচুসেটসে অনুষ্ঠানে অ্যাপলের সহপ্রতিষ্ঠাতা স্টিভ ওজনিয়াক শিক্ষার্থীদের উদ্দেশ্যে কথা প্রযুক্তিবিষয়ক ওয়েবসাইট সিনেটের এক প্রতিবেদনে তথ্য জানানো হয়েছেস্টিভ জবস স্টিভ ওজনিয়াক মিলে সত্তরের দশকে গড়ে তুলেছিলেন অ্যাপল ১৯৮০ সালে অ্যাপল ছেড়ে ওজনিয়াক হিসেবে ব্যবস্থাপনার চেয়ে প্রকৌশল করতেই ভালো লাগে এরপর স্টার্টআপ উদ্যোক্তা প্রতিষ্ঠান দাতব্য ব্যস্ত আছেন অ্যাপলে একজন সম্মানসূচক কর্মকর্তার পদে রয়েছেন বাৎসরিক বৃত্তি নেনস্টিভ ওজনিয়াক ২০০ বছর যন্ত্রের মানুষ হেরে শ্রেণিকক্ষের কম্পিউটার বসালেও শিশুদের অধিক স্মার্ট তোলা সম্ভব নাওজনিয়াকের মতে যন্ত্রকে অধিক গুরুত্ব দেওয়ার গৃহপালিত প্রাণীতে পরিণত হয়েছিনিজের প্রসঙ্গে স্টিভ ওজনিয়াক প্রযুক্তি ভালোবাসি সবকিছু পরীক্ষানিরীক্ষা চালিয়ে দেখি কমপক্ষে পাঁচটি আইফোন অ্যান্ড্রয়েড ফোন আছেওজনিয়াক বিশ্বের কথা কল্পনা মোবাইল ফোনের যন্ত্রগুলো সন্তানদের হয়ে শিক্ষা দেবে শ্রেণিকক্ষে শিক্ষাদান প্রসঙ্গে শিক্ষার্থীদের ওজনিয়াক শ্রেণিকক্ষের অধিক প্রযুক্তিপণ্য রাখার পরিবর্তে প্রতিটি শ্রেণিকক্ষে শিক্ষার্থীর সংখ্যা কমিয়ে ভালো শিক্ষার্থী সঙ্গীর চেয়ে প্রযুক্তি বিষয়ে আগ্রহ এগিয়ে বিষয়টি শেখাতে বিষয় ভালো লাগবে</t>
+  </si>
+  <si>
+    <t>খেলার শেষ বাঁশি বাজল আক্রমণ চালাল ভ্যালেন্সিয়া প্রতিআক্রমণে নেইমারের বাড়িয়ে বল অর্ধেক মাঠ একাই টেনে নিলেন লিওনেল মেসি ভ্যালেন্সিয়া গোলরক্ষক ডিয়েগো আলভেজের ওয়ানঅনওয়ানে চিপ চাইলেন হাত বাড়িয়ে বল ঠেকিয়ে আলভেজ তাতেও শেষ রক্ষা গোল দিয়েই ছাড়লেন মেসি নাটকীয়তায় ভরপুর মেসির গোলটার মাহাত্ম্য অন্যরকম বার্সার জার্সিতে ৪০০তম গোল বার্সার ২০ ব্যবধানে জয়ে মেসির ৪০০ গোলের আনন্দেও পূর্ণতা গোলটা পেতে পারতেন ২০ মিনিটে হেডে গোল সুযোগটা হাতছাড়া ৪১ মিনিটে ডান পায়ে শটে বল পাঠিয়ে পোস্টের বাইরে মেসির হেড ডান পায়ের দুর্বলতা নিন্দুকেরা আরেকবার মুখ খোলার সুযোগ পেল ৫৫ মিনিটে শূন্যে ভেসে ভলিটা কঠিনই দুর্ভাগ্য ৬৪ মিনিটে অসাধারণ ফ্রিকিক লাগল ক্রসবারে শেষ আক্ষেপ দূর অন্তিম মুহূর্তের নাটকীয় গোলেএমনিতে পয়েন্ট টেবিলে নিঃশ্বাস দূরত্বে রিয়াল মাদ্রিদ লিগে পয়েন্টের পার্থক্য একটু পা হড়কালেই সর্বনাশ ভাবনা নিয়েই মৌসুমের শেষ সময়ে মাঠে নামতে বার্সাকে ভ্যালেন্সিয়ার বিপক্ষে ঘরের মাঠে ভাবনাটা শুরুতে চাপ দাঁড়াল মেসিনেইমারদের প্রতিপক্ষের একের এক আক্রমণ অগোছাল রক্ষণ বিপরীতে একাধিক সুযোগ হাতছাড়াসর্বনাশই বসেছিল বার্সার বার্সা সমর্থকদের স্বস্তি লুইস সুয়ারেজ মেসির গোলে জিতেই মাঠ ছেড়েছে লুইস এনরিকের দলঅথচ শুরুটা দুর্দান্তই মিনিটেই লিওনেল মেসির ডিফেন্স চেরা পাসে দারুণ এক ফিনিশিংয়ে দলকে এগিয়ে নিলেন সুয়ারেজ প্রভাত দিনের পূর্বাভাস সময়</t>
+  </si>
+  <si>
+    <t xml:space="preserve">কম্পিউটার সমিতি বিসিএস হেলথ অ্যান্ড হাইজেনিক শ্রেণিতে সুপ্রিম কোর্টের জ্যেষ্ঠ আইনজীবী রফিকউল হক বারডেম কৃষি গবেষণার খাদ্যনিরাপত্তা শ্রেণিতে বাংলাদেশ ধান গবেষণা ইনস্টিটিউট ব্রি ইলেকট্রনিক মিডিয়ার কৃষি খাতে অবদান শ্রেণিতে চ্যানেল আইকে পদক আইনজীবী রফিকউল হক ট্রান্সকম গ্রুপের চেয়ারম্যান লতিফুর রহমান স্কয়ার গ্রুপের পরিচালক তপন চৌধুরী গ্রামীণ ব্যাংকের ভারপ্রাপ্ত ব্যবস্থাপনা পরিচালক মো শাহজাহান বারডেমের চিকিৎসক নাজমুন্নাহার খান গ্রুপের কর্ণধার সালাউদ্দিন কাশেম খান এপেক্স গ্রুপের পরিচালক নাসিম মঞ্জুর ব্রির গবেষক শাহজাহান কবীর বেসিসের পরিচালক রাসেল আহমেদ ইস্পাহানী গ্রুপের পরিচালক মির্জা আলী মেহরোজ ইস্পাহানীসহ প্রতিষ্ঠানগুলোর প্রতিনিধিরা অর্থমন্ত্রীর পদক নেন স্বাগত বক্তব্যে রোকেয়া আফজাল রহমান এমসিসিআইয়ের ১১০ বছর মানে এমসিসিআইয়ের ১১০ বছর সাফল্যের ১১০ বছর সাফল্য উদ্যোক্তাদের সাফল্য বাংলাদেশের সাফল্য সাফল্যের পেছনে দেশের রাজনীতিবিদ নিয়ন্ত্রক সংস্থা গণমাধ্যমেরও অবদান রোকেয়া আফজাল রহমান বিশ্বের দ্বিতীয় বৃহত্তম তৈরি পোশাক রপ্তানিকারক দ্বিতীয় বৃহত্তম তুলা আমদানিকারক খাদ্যে স্বয়ংসম্পূর্ণ গত ১০ বছরে ক্ষেত্রেই সাফল্য দেখিয়েছি সময় একটা টেকসই অর্থনীতি সুন্দর বাংলাদেশ গড়ার যাচ্ছি ব্যবসাবাণিজ্য সমাজে নৈতিকতার মান শক্তিশালী ব্যবসায়ের মুনাফা ছড়িয়ে মানুষ পৃথিবীর উপকারের বঙ্গবন্ধু আন্তর্জাতিক সম্মেলন কেন্দ্রে গতকাল শনিবার মেট্রোপলিটন চেম্বার অব কমার্স অ্যান্ড ইন্ডাস্ট্রি এমসিসিআই আয়োজিত এমসিসিআইয়ের শতবর্ষ পদক অনুষ্ঠানে থাইল্যান্ডের চুলালংকর্ন ইউনিভার্সিটির সাসিন গ্র্যাজুয়েট ইনস্টিটিউট অব বিজনেস অ্যাডমিনিস্ট্রেশনের পরিচালক দীপক জেইন কথা এমসিসিআইয়ের ১১০তম বর্ষপূর্তি উপলক্ষে ব্যবসায় প্রবণতা রূপান্তর ব্যবসা সমাজের অন্তর্ভুক্তিমূলক নেতৃত্ব শীর্ষক বক্তৃতা প্রধান অতিথি অর্থমন্ত্রী আবুল মাল আবদুল মুহিত অনুষ্ঠানে সমাজের গণ্যমান্য ব্যক্তিরা উপস্থিত পদক অনুষ্ঠানে শিল্পব্যবসাবাণিজ্য ব্যবসায়ে সুশাসন সামাজিক দায়বদ্ধতাসহ শ্রেণিতে ২০ ব্যক্তি প্রতিষ্ঠানকে এমসিসিআইয়ের শতবর্ষ পদক ব্যক্তি প্রতিষ্ঠানগুলোর প্রতিনিধিদের হাতে ক্রেস্ট অর্থমন্ত্রী এমসিসিআইয়ের সহসভাপতি আনিস খান অনুষ্ঠানে দীপক জেইনকে পরিচয় দীপক জেইন বর্তমান বিশ্বে ব্যবসাবাণিজ্যের ধরন উনিশ শতক সাম্রাজ্যবাদ এক রাষ্ট্র আরেক রাষ্ট্র দখল করত উদ্দেশ্য এভাবেই ক্ষমতা অর্জন ক্ষমতা দেখানো বিশ শতকে আসে মুক্ত বাজার প্রতিযোগিতা পুঁজিবাদ অনুঘটকের ভূমিকায় রাষ্ট্রের পরিবর্তে আসে করপোরেশন সংস্থা উদ্দেশ্য মুনাফা অর্জনের সাফল্যের পথে অগ্রসর একুশ শতকে ছাপিয়ে আসে মানবসম্পদের উন্নয়ন উদ্যোক্তাবাদ নেপথ্যে রাষ্ট্র সংস্থাও রয়েছেন নাগরিকেরা উদ্দেশ্য তাৎপর্যপূর্ণ দিনের উদ্যোক্তাদের খাত হিসেবে গ্রাহকসেবা হেলথকেয়ার ওয়েলথকেয়ার গ্রাহক অংশগ্রহণ গণমাধ্যম বিনোদন গ্রাহক আতিথেয়তা পর্যটন হোটেলরেস্তোঁরার কথা উল্লেখ দীপক জেইন বক্তৃতায় ধারণা তৈরির ব্যবসাবাণিজ্যের ধরন পাল্টে কথাও ধরেন দীপক উদাহরণ উড়োজাহাজের টিকিট বিক্রি মাইল দীপক গতানুগতিকতা বেরিয়ে চিন্তা সৃষ্টির মানসিকতা তৈরি প্রধান নির্বাহী কর্মকর্তারা সিইও খোলা ভাবতে শিখছেন এমসিসিআইয়ের শতবর্ষ পদক শিল্পায়নে পথিকৃৎ শ্রেণিতে পদক প্রয়াত নুরুল কাদের স্যামসন এইচ চৌধুরীকে দুজনের ছেলে ওমর কাদের খান তপন চৌধুরী পদক গ্রহণ করপোরেট সুশাসন ব্যবসায় পরিবেশ উন্নয়ন শ্রেণিতে পদক পেয়েছে ট্রান্সকম লিমিটেড এসিআই উদ্যোক্তা উন্নয়ন শ্রেণিতে প্রাণআরএফএল গ্রুপ এপেক্স ফুটওয়্যার করপোরেট সামাজিক দায়বদ্ধতা শ্রেণিতে ইউনিলিভার বাংলাদেশ ব্রিটিশ আমেরিকান টোব্যাকো বাংলাদেশ দক্ষতা উন্নয়ন শ্রেণিতে খান অ্যান্ড কোম্পানি শিক্ষা শ্রেণিতে এমএম ইস্পাহানী দারিদ্র্য বিমোচন সামাজিক উন্নয়ন শ্রেণিতে গ্রামীণ ব্যাংক ব্র্যাক গ্রিন বিজনেস শ্রেণিতে রহিমআফরোজ রিনিউয়েবল এনার্জি ভিয়েলাটেক্স গ্রুপ তথ্যপ্রযুক্তি উন্নয়ন শ্রেণিতে বাংলাদেশ অ্যাসোসিয়েশন অব সফটওয়্যার অ্যান্ড ইনফরমেশন সার্ভিসেস বেসিস বাংলাদেশ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">দাদা মাথায় উইগ পরেন মানে পরচুলা বলেই হি হি হাসল রেণু রেণু কলিগ একটা প্রজেক্ট ম্যানেজমেন্টের ওপর কোর্স করছিরেণুর কথা শুনে মাথা ঝিমঝিম রাগে সারা শরীর কাঁপে রাগলে তোতলাতে থাকি রেণুর কটমট তাকিয়ে বলি বলছেন এসব মাথায় চুল মাথাটা সামনের বাড়িয়ে শিশুর দেখাতে থাকি রেণু তোলপাড় হাসেরেণু খেপে গেলেন তাড়াতাড়ি চলেন বাবা আছেন কথা বলেছিশুনে মন ভালো হয়ে যায় রেণুর খুনসুটি গায়ে লাগে খানিকটা বোকা বোকা ঢঙে বলি বাবা বলবেন রেণু মুখটা বাঁকিয়ে হাসি হাসি ভঙ্গিতে চলেন নিজেও জানি বলবেনআমার মন কেমন লাল কৃষ্ণচূড়া ফুল ফুটেছে গাছে রিকশা থামিয়ে একটা কৃষ্ণচূড়া খোঁপায় গুঁজে ইচ্ছা করেআমি উত্তেজনায় ছটফট থাকিরিকশাওয়ালাকে থামতে ঝুপ নেমে পড়ে রেণু তাকিয়ে তাড়া দেয় কই আসেনআমি ধীর পায়ে নামিরেণু পাশে পাশে হাঁটে মিষ্টি হাসে মাথা ঘুরিয়ে তাকিয়ে বলি কথা রেণু শুনল শুনল ঘাড় ঘুরিয়ে আচ্ছা একরকম নির্ভার হয়ে ড্রয়িংরুমে বসিরেণুর বাবা এলেন মিনিট পাঁচেক মোটাসোটা মুখে হাসি হাসান সরি বললামআমি বিনয়ের বলি হ্যাঁ চাচা অসুবিধা ভদ্রলোক হাসছেন অনবরত হাসছেন ঘাবড়ে যাই ভদ্রলোক এখনো </t>
+  </si>
+  <si>
+    <t xml:space="preserve">সুন্দরবনের শ্যালা নদীতে তেলবাহী জাহাজডুবির ঘটনায় দায়ী পণ্যবাহী জাহাজ এমটি টোটালের মাস্টারসহ কর্মীকে আটক পুলিশ জাহাজটিও পুলিশ জিম্মায় রেখেছে বর্তমানে আটক জাহাজটি নারায়ণগঞ্জ বন্দরের সোনাকান্দা ডকইয়ার্ডে হয়েছেবন্দর থানার ভারপ্রাপ্ত কর্মকর্তা ওসি মো নজরুল ইসলাম জানান গতকাল রোববার গভীর রাতে বাগেরহাটের পুলিশ নারায়ণগঞ্জের বন্দর থানার পুলিশের সহায়তায় শীতলক্ষ্যা নদীর লক্ষণখোলা </t>
+  </si>
+  <si>
+    <t xml:space="preserve">মেষ ২১ মার্চ২০ এপ্রিল ভর ৬আপনি আছেন এক সামগ্রিক পরিবর্তনের বলয়ে পরিবর্তন আপনাকে শুভদিনের আপনাদের জীবনে পরিবর্তন আসবে দ্রুত বাদবাকিদের অধৈর্য হওয়ার পরিবর্তন এলে ব্যস্ত হয়ে উঠবেন কথা আগাম অভিনন্দন রইলবৃষ ২১ এপ্রিল২১ মে ভর ১আপনাদের বর্তমান সময়ে বিদেশের মাটিতে পা রাখবেন স্থানীয় ভ্রমণ ব্যবসায়ী বৃষর একটা সুসময়ের আবহ গড়ে উঠতে অর্থাৎ আশাবাদী হয়ে উঠতে অন্যান্য পেশায় জড়িত তাঁদেরও পাওয়ার বিশেষত বয়সে তরুণ হৃদয়ের ন্যায্যমূল্য পাবেন আশা যায়মিথুন ২২ মে২১ জুন ভর ৬হৃদয়ের ব্যাপারটাই সপ্তাহে মুখ্য হয়ে দাঁড়াবে আগাম পরামর্শ দিচ্ছি আবেগের বশবর্তী হইয়া আবেগে ভেসে ধীরস্থির বিপর্যয় ঘটবে সপ্তাহে আর্থিক অবস্থা ভালো কর্কট ২২ জুন২২ জুলাই ভর ২ সবদিক দিয়ে স্থানে থাকার পরও যন্ত্রণা ভোগ হয়তো সার্বিক সাফল্য মনের বেদনাএই বিষয়ে প্রস্তুত থাকুন সাফল্যের আগাম অভিনন্দন কষ্টের সমবেদনা রইল সিংহ ২৩ জুলাই২৩ আগস্ট ভর ১ একেবারে নিস্তরঙ্গ জীবন বোঝায় কখনোই জন্যই সিংহের জীবন সর্বদা নাটকীয় বৈচিত্র৵ময় চলতি সপ্তাহে নতুনত্বের অপেক্ষা কন্যা ২৪ আগস্ট২৩ সেপ্টেম্বর ভর ২ সাধারণভাবে কন্যা জীবনে প্রচুর সৌভাগ্য ভোগ সপ্তাহেও ব্যতিক্রম যায় লোকের যোগাযোগের কন্যাকে খানিকটা সতর্ক থাকতে তর্ক চলতে ঝগড়া একেবারেই এভাবে সপ্তাহ শুভ হয়ে উঠবে তুলা ২৪ সেপ্টেম্বর২৩ অক্টোবর ভর ২ সপ্তাহে হাতে তুলাধোনা মন খারাপ ব্যাপারটাই শেষ কল্যাণকর হয়ে দাঁড়াবে সাপে বর আরকি সপ্তাহে লোকের ওপর প্রভাব জোরদার হয়ে উঠবে বৃশ্চিক ২৪ অক্টোবর২২ নভেম্বর ভর ২ ব্যস্ততা হঠাৎ বেড়ে জন্যই অত্যন্ত ভালো লক্ষণ পেশাগত ব্যস্ততার মধ্য দিয়ে সাফল্য স্বীকৃতি আসবে ধনু ২৩ নভেম্বর২১ ডিসেম্বর ভর ৯ চলতি সপ্তাহে দুর্ভাবনা মতো সময় পাবেন কাজের চিন্তা করতেই সপ্তাহ কেটে আর্থিক অবস্থা সাময়িক একটু নিম্নমুখী দেখলে দমে যাবেন সবদিকে শুভ সময় মকর ২২ ডিসেম্বর২০ জানুয়ারি ভর ৩ দেখবেন সময়টা মন হালকা একটু গান শুনুন আড্ডা মকর শক্তিশালী রাশি কথার ওপর আস্থা রাখুন কুম্ভ </t>
+  </si>
+  <si>
+    <t>অবশেষে ঢাকায় প্রধানমন্ত্রী নরেন্দ্র মোদির সফরসঙ্গী আমন্ত্রণ পেলেন পশ্চিমবঙ্গের মুখ্যমন্ত্রী মমতা বন্দ্যোপাধ্যায় আমন্ত্রণ পেলেন আসামের মুখ্যমন্ত্রী তরুণ গগৈ মেঘালয়ের মুখ্যমন্ত্রী মুকুল সাংমাও ত্রিপুরার মুখ্যমন্ত্রী মানিক সরকার বৃহস্পতিবার সন্ধ্যা আমন্ত্রণ পাননি সচিবালয় হয়েছেপ্রধানমন্ত্রী নরেন্দ্র মোদি জুন মাসের ৬ ৭ তারিখে বাংলাদেশ সফরে আসছেনবাংলাদেশের সীমান্ত চুক্তি বাস্তবায়নের ভারতীয় রাজ্যের আন্তর্জাতিক সীমানায় বদল ঘটবে রাজ্যের মুখ্যমন্ত্রীকেই সফরে প্রধানমন্ত্রী আগ্রহী মে মাসের ৮ ৯ তারিখে কলকাতা সফরকালীন মোদি বিষয়ে মমতার কথাও</t>
+  </si>
+  <si>
+    <t xml:space="preserve">টাঙ্গাইলের গোপালপুরে বেলাল হোসেন নামে সিএনজিচালিত অটোরিকশার এক চালককে ছিনতাইকারীরা হত্যা পুলিশ ছিনতাইকারীদের মাইক্রোবাসটি আটক গত বৃহস্পতিবার রাত ১২টার ঘটনা ঘটেগোপালপুর থানার ভারপ্রাপ্ত কর্মকর্তা ওসি জহিরুল ইসলাম জানান গোপালপুর উপজেলার গুলিপেচা গ্রামের বেলাল হোসেন অটোরিকশায় সিএনজি স্টেশন গ্যাস বাড়ি ফিরছিলেন রাত সাড়ে ১১টার ভূঞাপুর উপজেলার কুঠিবয়ড়া এলাকায় পৌঁছালে মাইক্রোবাস ওত পেতে কয়েকজন ছিনতাইকারী গতিরোধ বেলাল হোসেনকে মাইক্রোবাসে অটোরিকশাটি নিয়ন্ত্রণে নেয় ঘটনা স্থানীয় এক ব্যক্তি চিৎকার সময় ছিনতাইকারীরা মাইক্রোবাস ছিনতাই অটোরিকশা তারাকান্দির পালাতে থাকেমুঠোফোনে খবর নলিনবাজার এলাকায় স্থানীয় জনগণ রাস্তায় </t>
+  </si>
+  <si>
+    <t>নির্বাচনকালীন সরকার বিএনপির দাবির পরিবর্তন জানিয়েছেন দলের চেয়ারপারসন খালেদা জিয়া নিরপেক্ষ সরকারের অধীনেই জাতীয় নির্বাচন গতকাল শনিবার রাতে রাজশাহী জেলা জাতীয়তাবাদী আইনজীবী ফোরামের এক মতবিনিময় সভায় খালেদা জিয়া এসব কথা গুলশানে খালেদা জিয়ার রাজনৈতিক কার্যালয়ে মতবিনিময়ের আয়োজন খালেদা জিয়া দৈনিক পত্রিকার নাম উল্লেখ পত্রিকাসহ পত্রিকা বিভ্রান্তি ছড়িয়েছে চেঞ্জ নিরপেক্ষ সরকারের অধীনে নির্বাচনে অবশ্যই যাব হাসিনা মার্কা নির্বাচনে জনগণ ভোট সুযোগ পাবে ৫ জানুয়ারির নির্বাচনে বিএনপি ভুল করেনি আওয়ামী লীগ ভোটের বাক্স ভর্তি কৌশল রেখেছিল বিএনপিকে নির্বাচনে চেষ্টাও করেছিল বর্তমান নির্বাচন কমিশনের পদত্যাগ দাবি বিএনপির চেয়ারপারসন সংবিধানবিরোধী পদত্যাগ জনগণ ছাড় দেবে অপ্রাপ্তবয়স্কদের নিবন্ধন হালনাগাদ ভোটার তালিকা বাতিল দাবি জানান খালেদা জিয়া বিএনপির জেলা পর্যায়ের কমিটি ঢাকা তৃণমূলের নেতাকর্মীরাই কমিটি ইয়াং জেনারেশনকে নেতৃত্বে আনতে বয়স্করাও পরামর্শ ছাত্রলীগের পক্ষের দ্বন্দ্বে মাগুরায় মায়ের পেটে শিশু গুলিবিদ্ধ ঘটনার সমালোচনা খালেদা জিয়া প্রশ্ন রাখেন</t>
+  </si>
+  <si>
+    <t xml:space="preserve">সেঞ্চুরিয়ন টেস্টের তৃতীয় দিনেই নিশ্চিত গিয়েছিল ওয়েস্ট ইন্ডিজের হার ফলোঅনে পড়া দলটি দক্ষিণ আফ্রিকার একমাত্র ইনিংস পিছিয়ে ২৭৫ রানে দ্বিতীয় ইনিংসে ২ উইকেটে ৭৬ রান তৃতীয় দিনটি পার খানিকটা আশা জাগিয়ে ম্যাচ বাঁচানোর চতুর্থ দিনে অবিশ্বাস্য করল ক্যারিবীয়রা পরাজয়ই সাততাড়াতাড়ি সকালে ঘণ্টা খানেকের ১৫৩ ওভারেই অলআউট ওয়েস্ট ইন্ডিজ টেস্টটা ইনিংস ২২০ রানে জিতে নিল দক্ষিণ আফ্রিকা কৃতিত্ব ক্যারিবীয়দের দিলে সুবিচার ডেল স্টেইনের ৬ উইকেট প্রোটিয়া ফাস্ট বোলারই ছিঁড়েখুঁড়ে ফেলেছেন ওয়েস্ট ইন্ডিজের ব্যাটিং৩৪ রানে ৬ উইকেট নিয়েছেন টেস্ট ক্রিকেটে বিশ্বের এক নম্বর বোলার আগের ওয়েস্ট ইন্ডিজের দ্বিতীয় ইনিংসে ৫ বল খুঁড়িয়ে খুঁড়িয়ে মাঠ ছেড়েছিলেন কুঁচকিতে টান পড়ায় </t>
+  </si>
+  <si>
+    <t>রাষ্ট্রপতি মো আবদুল হামিদের বেলা একটার সৌজন্য সাক্ষাৎ প্রধানমন্ত্রী শেখ হাসিনাডাক টেলিযোগাযোগ তথ্যপ্রযুক্তিমন্ত্রী আবদুল লতিফ সিদ্দিকীকে মন্ত্রিসভা অব্যাহতি আলোচনা চলমান অবস্থায় সাক্ষাৎ সরকার রাজনৈতিক মহলে গুঞ্জনের সৃষ্টি হয়েছেএ চাইলে রাষ্ট্রপতির প্রেস সচিব ইহসানুল করিম আলোকে জানান মহামান্য রাষ্ট্রপতি পবিত্র হজ পালন দেশে ফিরেছেন মাননীয় প্রধানমন্ত্রী শেখ হাসিনা জাতিসংঘের অধিবেশনে যোগদান শেষে দেশে ফেরেন সৌজন্য সাক্ষাৎ এক প্রশ্নের জবাবে প্রেস সচিব জানান অন্যান্য বিষয়ও আলোচনা আগাম সম্ভব হিথরো বিমানবন্দরে যুক্তরাজ্য স্বেচ্ছাসেবক লীগের পক্ষের গতকাল শুক্রবার রাতে হাতাহাতি যুক্তরাজ্যে স্বেচ্ছাসেবক লীগের তিন কেন্দ্রীয় নেতাকে অভ্যর্থনা জানাতে একপর্যায়ে হাতাহাতি টানাটানি ধাক্কাধাক্কি পুলিশ পরিস্থিতি নিয়ন্ত্রণে আনে আগামীকাল রোববার পূর্ব লন্ডনের অ্যাট্রিয়াম যুক্তরাজ্য স্বেচ্ছাসেবক লীগের সভা কথা সভায় আমন্ত্রিত কেন্দ্রীয় স্বেচ্ছাসেবক লীগের সভাপতি মোল্লা আবু কাউসার সাংগঠনিক সম্পাদক আব্দুল আলীম দপ্তর সম্পাদক সালেহ মোহাম্মদ টুটুল লন্ডনে অভ্যর্থনা জানাতে যুক্তরাজ্য স্বেচ্ছাসেবক লীগের পক্ষের নেতাকর্মীরা তিন নম্বর টার্মিনালে আলাদা সারিতে দাঁড়ান গতকাল শুক্রবার রাত সাড়ে আটটার নেতারা টার্মিনালে আসেন সময় তাঁদেরকে ফুল পক্ষের ধাক্কাধাক্কি লিফটে ওঠার সময় একপক্ষ আরেক পক্ষের নেতাকর্মীদের কিল ঘুষি মেরে সরিয়ে গাড়ি রাখার স্থানে নেতাদের গাড়িতে তোলা হাতাহাতি প্রৃচণ্ড হট্টগোলের পুলিশ পরিস্থিতি নিয়ন্ত্রণে আনে স্থানীয় সময় সাড়ে ১২টার স্বেচ্ছাসেবক লীগের সাংগঠনিক সম্পাদক আব্দুল আলীম আলোকে যুক্তরাজ্য স্বেচ্ছাসেবক লীগের কোন্দল সম্পর্কে ধারণা সভাপতি সায়েদ আহমদ সম্পাদক সানু মিয়ার নেতৃত্বে কমিটি যুক্তরাজ্য স্বেচ্ছাসেবক লীগের একমাত্র কমিটি সারওয়ার আহমদ ইকবাল হোসেনের নেতৃত্বে গ্রুপটি অভ্যর্থনা জানাতে চেনেন দাবি আব্দুল আলীমের দাবি জামায়াতশিবিরের লোকেরা বিমানবন্দরে বিশৃঙ্খলা সৃষ্টির চালিয়েছে যাঁদের চেনেন জামায়াতশিবিরের লোক কীভাবে নিশ্চিত হলেনএমন প্রশ্নের জবাবে আব্দুল আলীম সংগঠনের স্বেচ্ছাসেবক লীগের পক্ষের নেতারা হাতাহাতির কথা অস্বীকার মানুষ কারণে কিছুটা ধাক্কাধাক্কি যুক্তরাজ্য আওয়ামী লীগের একাধিক নেতা স্বেচ্ছাসেবক লীগের বিরোধ সম্পর্কে রাজি হননি</t>
   </si>
 </sst>
 </file>
@@ -1644,7 +1644,7 @@
   <dimension ref="A1:B429"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1655,15 +1655,15 @@
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>424</v>
+        <v>408</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -1671,31 +1671,31 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>416</v>
+      </c>
+      <c r="B3" t="s">
         <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>426</v>
+        <v>410</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
@@ -1711,79 +1711,79 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>429</v>
+        <v>413</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>417</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
         <v>0</v>
@@ -1791,295 +1791,295 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>431</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>418</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>419</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>430</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>49</v>
+        <v>420</v>
       </c>
       <c r="B41" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>53</v>
+        <v>421</v>
       </c>
       <c r="B45" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>58</v>
+        <v>422</v>
       </c>
       <c r="B49" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B54" t="s">
         <v>0</v>
@@ -2087,143 +2087,143 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>68</v>
+        <v>423</v>
       </c>
       <c r="B58" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B61" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B72" t="s">
         <v>0</v>
@@ -2231,63 +2231,63 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B80" t="s">
         <v>0</v>
@@ -2295,15 +2295,15 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>91</v>
+        <v>424</v>
       </c>
       <c r="B82" t="s">
         <v>0</v>
@@ -2311,31 +2311,31 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B86" t="s">
         <v>0</v>
@@ -2343,223 +2343,223 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="B114" t="s">
         <v>0</v>
@@ -2567,39 +2567,39 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="B119" t="s">
         <v>0</v>
@@ -2607,151 +2607,151 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="B138" t="s">
         <v>0</v>
@@ -2759,87 +2759,87 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="B149" t="s">
         <v>0</v>
@@ -2847,95 +2847,95 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>167</v>
+        <v>425</v>
       </c>
       <c r="B158" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B159" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="B160" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>169</v>
+        <v>426</v>
       </c>
       <c r="B161" t="s">
         <v>0</v>
@@ -2943,399 +2943,399 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="B162" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="B163" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="B164" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B165" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="B166" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="B167" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="B168" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="B169" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B170" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="B171" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="B172" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="B173" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="B174" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="B175" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="B176" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="B177" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="B178" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="B179" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="B180" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="B181" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="B182" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B183" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="B184" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>191</v>
+        <v>427</v>
       </c>
       <c r="B185" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="B186" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="B187" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B188" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="B189" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="B190" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="B191" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="B192" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="B193" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="B194" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="B195" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="B196" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="B197" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="B198" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="B199" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="B200" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="B201" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="B202" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="B203" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="B204" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="B205" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="B206" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="B207" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="B208" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="B209" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="B210" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="B211" t="s">
         <v>0</v>
@@ -3343,199 +3343,199 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="B212" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="B213" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="B214" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="B215" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="B216" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="B217" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="B218" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="B219" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="B220" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="B221" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="B222" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="B223" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="B224" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="B225" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="B226" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="B227" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="B228" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="B229" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="B230" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="B231" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="B232" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="B233" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="B234" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="B235" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B236" t="s">
         <v>0</v>
@@ -3543,95 +3543,95 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="B237" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="B238" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="B239" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="B240" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="B241" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="B242" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="B243" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="B244" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="B245" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="B246" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="B247" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="B248" t="s">
         <v>0</v>
@@ -3639,103 +3639,103 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="B249" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="B250" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="B251" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="B252" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="B253" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="B254" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="B255" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="B256" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="B257" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="B258" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="B259" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="B260" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="B261" t="s">
         <v>0</v>
@@ -3743,23 +3743,23 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="B262" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="B263" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="B264" t="s">
         <v>0</v>
@@ -3767,159 +3767,159 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B265" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B266" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="B267" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="B268" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="B269" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="B270" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="B271" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="B272" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="B273" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="B274" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="B275" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="B276" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="B277" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="B278" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="B279" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="B280" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="B281" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="B282" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="B283" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="B284" t="s">
         <v>0</v>
@@ -3927,87 +3927,87 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="B285" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="B286" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="B287" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="B288" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="B289" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="B290" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="B291" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="B292" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="B293" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="B294" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="B295" t="s">
         <v>0</v>
@@ -4015,103 +4015,103 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="B296" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="B297" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="B298" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="B299" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="B300" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="B301" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="B302" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="B303" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="B304" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="B305" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="B306" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="B307" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="B308" t="s">
         <v>0</v>
@@ -4119,7 +4119,7 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="B309" t="s">
         <v>0</v>
@@ -4127,31 +4127,31 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="B310" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="B311" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="B312" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="B313" t="s">
         <v>0</v>
@@ -4159,23 +4159,23 @@
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="B314" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="B315" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="B316" t="s">
         <v>0</v>
@@ -4183,119 +4183,119 @@
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="B317" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="B318" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="B319" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="B320" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="B321" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="B322" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="B323" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="B324" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="B325" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="B326" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="B327" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="B328" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="B329" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="B330" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="B331" t="s">
         <v>0</v>
@@ -4303,55 +4303,55 @@
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="B332" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="B333" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="B334" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B335" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="B336" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="B337" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="B338" t="s">
         <v>0</v>
@@ -4359,199 +4359,199 @@
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="B339" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="B340" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="B341" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B342" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="B343" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="B344" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="B345" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="B346" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="B347" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="B348" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="B349" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="B350" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="B351" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="B352" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="B353" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="B354" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="B355" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="B356" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="B357" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="B358" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="B359" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="B360" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="B361" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="B362" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="B363" t="s">
         <v>0</v>
@@ -4559,39 +4559,39 @@
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="B364" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="B365" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="B366" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="B367" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="B368" t="s">
         <v>0</v>
@@ -4599,167 +4599,167 @@
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="B369" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="B370" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="B371" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="B372" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="B373" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="B374" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="B375" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="B376" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="B377" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="B378" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="B379" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="B380" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="B381" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="B382" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="B383" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="B384" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="B385" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="B386" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="B387" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="B388" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="B389" t="s">
         <v>0</v>
@@ -4767,143 +4767,143 @@
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="B390" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="B391" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="B392" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="B393" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="B394" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="B395" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="B396" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="B397" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="B398" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="B399" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="B400" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="B401" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="B402" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="B403" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="B404" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="B405" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="B406" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="B407" t="s">
         <v>0</v>
@@ -4911,103 +4911,103 @@
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="B408" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="B409" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="B410" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="B411" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="B412" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="B413" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="B414" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="B415" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B416" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="B417" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="B418" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="B419" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="B420" t="s">
         <v>0</v>
@@ -5015,74 +5015,74 @@
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="B421" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="B422" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B423" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="B424" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="B425" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="B426" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="B427" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>422</v>
+        <v>406</v>
       </c>
       <c r="B428" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>423</v>
+        <v>407</v>
       </c>
       <c r="B429" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
